--- a/DOWNLOADS/EDITAIS/U_926002_E_900292025_26-09-2025_10h00m/U_926002_E_900292025_26-09-2025_10h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_926002_E_900292025_26-09-2025_10h00m/U_926002_E_900292025_26-09-2025_10h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="345">
   <si>
     <t>Nº</t>
   </si>
@@ -931,16 +931,16 @@
     <t>Anel vedação Anel Vedação Material: Borracha Sintética, Diâmetro Interno: 80MM, Características Adicionais: Diâmetro Externo: 120 Mm, Aplicação:Vaso Sanitari</t>
   </si>
   <si>
-    <t>TALABARTE DE POSICIONAMENTO, especificação: 01 regulador de corda em aços inox; 01 conector em aço e fechamento com rosca Classe B; 01 conector classe T em aço, com abertura de 18 e 19mm; Confeccionado em corda de poliamida de 12 a 15mm; Protetor da corda; Comprimento entre 1,35 a 2,00 metros. Cordão: Material: Fabricado em corda de poliamida com diâmetro entre 12 mm e 15 mm , garantindo resistência e durabilidade contra desgaste e condições adversas de trabalho. Protetor da Corda: O talabarte é fornecido com protetor de corda, visando prolongar a vida útil do material, prevenindo danos mecânicos, como atritos excessivos ou abrasões, durante o uso. Comprimento: O comprimento da corda varia entre 1,35 metros e 2,00 metros , oferecendo flexibilidade no uso e permitindo ao trabalhador se posicionar de forma confortável e segura durante as atividades em altura. Regulador de Corda: Material: Regulador de corda fabricado em aço inoxidável, garantindo resistência à corrosão, alta durabilidade e desempenho superior mesmo em condições de uso severas, como ambientes externos e exposição a umidade. O regulador é projetado para ajustar a corda, proporcionando ao trabalhador a capacidade de se posicionar de maneira eficiente, ajustando o comprimento do talabarte conforme a necessidade. Conectores: Conector em Aço com Fechamento Rosqueado (Classe B): O talabarte possui um conector em aço, com fechamento com rosca, que é classificado como Classe B, ideal para uso em sistemas de ancoragem e para garantir uma conexão segura. Este tipo de conector é robusto e fácil de manusear, proporcionando alta segurança no uso. Conector Classe T em Aço: O talabarte também inclui um conector Classe T em aço, com abertura de 18 mm a 19 mm, para garantir flexibilidade na fixação do sistema ao ponto de ancoragem. O conector Classe T é resistente e projetado para suportar cargas elevadas.</t>
-  </si>
-  <si>
-    <t>CAPACETE DE SEGURANÇA, com carneira e Jugular, Especificação: Classe A e B, atender a NBR 8221:2003, confeccionado em polietileno de alta densidade, material super resistente, com suspensão deve ser de ajuste fácil e ser conforma à base do crânio, evitando pontos de tensão, trazendo maior estabilidade e conforto ao usuário. Deve ter tira de absorção de suor. Referente as cores, vai ser atendido a questão das especificações de acordo com a função desempenhada a serem solicitadas na ordem de fornecimento: Branco ou cinza: engenheiros, estagiários, técnicos, mestres e encarregados. Azul: pedreiros. Laranja: eletricistas. Vermelho: bombeiros ou carpinteiros. Marrom ou amarelo: visitante. Verde: serventes e operários.</t>
+    <t>TALABARTE DE POSICIONAMENTO, especificação: 01 regulador de corda em aços inox; 01 conector em aço e fechamento com rosca Classe B; 01 conector classe T em aço, com abertura de 18 e 19mm; Confeccionado em corda de poliamida de 12 a 15mm; Protetor da corda; Comprimento entre 1,35 a 2,00 metros. Cordão: Material: Fabricado em corda de poliamida com diâmetro entre 12 mm e 15 mm , garantindo resistência e durabilidade contra desgaste e condições adversas de trabalho. Protetor da Corda: O talabarte é fornecido com protetor de corda, visando prolongar a vida útil do material, prevenindo danos mecânicos, como atritos excessivos ou abrasões, durante o uso. Comprimento: O comprimento da corda varia entre 1,35 metros e 2,00 metros , oferecendo flexibilidade no uso e permitindo ao trabalhador se posicionar de forma confortável e segura durante as atividades em altura. Regulador de Corda: Material: Regulador de corda fabricado em aço inoxidável, garantindo resistência à corrosão, alta durabilidade e desempenho superior mesmo em condições de uso severas, como ambientes externos e exposição a umidade. O regulador é projetado para ajustar a corda, proporcionando ao trabalhador a capacidade de se posicionar de maneira eficiente, ajustando o comprimento do talabarte conforme a necessidade. Conectores: Conector em Aço com Fechamento Rosqueado (Classe B): O talabarte possui um conector em aço, com fechamento com rosca, que é classificado como Classe B, ideal para uso em sistemas de ancoragem e para garantir uma conexão segura. Este tipo de conector é robusto e fácil de manusear, proporcionando alta segurança no uso. Conector Classe T em Aço: O talabarte também inclui um conector Classe T em aço , com abertura de 18 mm a 19 mm , para garantir flexibilidade na fixação do sistema ao ponto de ancoragem. O conector Classe T é resistente e projetado para suportar cargas elevadas.</t>
+  </si>
+  <si>
+    <t>CAPACETE DE SEGURANÇA, com carneira e jugular, Especificação: Classe A e B, atender a NBR 8221:2003, confeccionado em polietileno de alta densidade, material super resistente, com suspensão deve ser de ajuste fácil e ser conforma à base do crânio, evitando pontos de tensão, trazendo maior estabilidade e conforto ao usuário. Deve ter tira de absorção de suor. Referente as cores, vai ser atendido a questão das especificações de acordo com a função desempenhada a serem solicitadas na ordem de fornecimento: Branco ou cinza: engenheiros, estagiários, técnicos, mestres e encarregados. Azul: pedreiros. Laranja: eletricistas. Vermelho: bombeiros ou carpinteiros. Marrom ou amarelo: visitante. Verde: serventes e operários.</t>
   </si>
   <si>
     <t>LUVAS ISOLANTE DE BORRACHA, Cor preta, Tamanho G, Especificação: Modelo: Isolante Classe 00; Material: Poliisopreno; Tensão Máxima de Uso: 500 V; Tensão de Ensaio: 2.500 V; Acabamento na Palma: Liso; Acabamento Interno: Clorinado; Formato: Anatômico; Cor: Preta; Comprimento: 35 cm; Certificado de Aprovação (CA): 38400</t>
   </si>
   <si>
-    <t>LUVAS ISOLANTE DE BORRACHA, Cor preta, Tamanho Médio, Especificação: Modelo: Isolante Classe 00; Material: Poliisopreno; Tensão Máxima de Uso: 500 V; Tensão de Ensaio: 2.500 V; Acabamento na Palma: Liso; Acabamento Interno: Clorinado; Formato: Anatômico; Cor: Preta; Comprimento: 35 cem; Certificado de Aprovação (CA): 38400</t>
+    <t>LUVAS ISOLANTE DE BORRACHA, Cor preta, Tamanho Médio, Especificação: Modelo: Isolante Classe 00; Material: Poliisopreno; Tensão Máxima de Uso: 500 V; Tensão de Ensaio: 2.500 V; Acabamento na Palma: Liso; Acabamento Interno: Clorinado; Formato: Anatômico; Cor: Preta; Comprimento: 35 cm; Certificado de Aprovação (CA): 38400</t>
   </si>
   <si>
     <t>OLHAL 1/2 mm, Galvanizado, macho, para suspensão linha de vida com rosca: Tipo de Produto: Olhal com rosca macho. Tamanho: 1/2 polegada (aproximadamente 12,7 mm de diâmetro). Material: Aço Galvanizado (tratamento de galvanização a quente ou eletrolítica para maior resistência à corrosão). Uso: Destinado à fixação de sistemas de linha de vida, com objetivo de proporcionar segurança durante atividades em altura. Rosca: Rosca macho para conexão com outros componentes de sistema de suspensão. Normas e Regulamentações: Atender às normas nacionais e internacionais de segurança para linha de vida e sistemas de ancoragem, como ABNT NBR 15625 ou outras aplicáveis. Características adicionais: Resistente a impactos e condições climáticas adversas. Capacidade de suportar carga de acordo com as exigências da norma de segurança. Acabamento galvanizado para durabilidade e resistência à corrosão.</t>
@@ -949,13 +949,13 @@
     <t>LINHA DE VIDA MÓVEL, fabricada em fita de poliéster com Catraca - com no mínimo 20 Metros e 38 mm de largura, possui catraca para regulagem e bolsa para acomodação. Material da Fita: Fabricada em fita de poliéster de alta resistência, que oferece durabilidade e resistência a abrasões, intempéries e condições adversas de trabalho. Largura: A fita possui 38 mm de largura, garantindo maior robustez e resistência durante o uso, além de maior conforto e segurança ao usuário. Comprimento: A linha de vida móvel possui no mínimo 20 metros de comprimento, permitindo um alcance adequado em diferentes cenários de trabalho em altura. Catraca: Equipado com catraca para regulagem, que permite ao usuário ajustar facilmente o comprimento da linha de vida de acordo com a necessidade do trabalho. A catraca deve ser construída em material de alta resistência (como aço galvanizado ou liga metálica), garantindo uma regulagem precisa e segura. O sistema de catraca também permite que o trabalhador utilize a linha de vida de forma eficiente, com facilidade para tensionar a fita e garantir uma fixação segura. Bolsa para Acomodação: A linha de vida móvel deve ser acompanhada de bolsa para acomodação, projetada para armazenar a fita e os componentes de forma compacta e organizada quando não estiver em uso. A bolsa deve ser resistente e facilitar o transporte e o armazenamento do equipamento. Conexões e Ancoragem: A linha de vida móvel deve ter um sistema de conexões de ancoragem de fácil uso, compatível com os pontos de ancoragem utilizados no trabalho em altura. As conexões devem ser seguras e permitir a fixação do sistema com confiança.</t>
   </si>
   <si>
-    <t>MACACÃO PARA ELETRICISTA, Especificação: Produzido em tecido com retardo de chamas; Com gola tipo padre, com fechamento frontal em velcro, entre 2 e 3 em de largura; Mangas longas, tipo social; Meio cós em elástico; Com bolsos, na frente e atrás; Com faixas refletivas; Proteger de Arco elétrico, Chamas, Fogo (NR10) Cor azul ou cinza; tamanho M.</t>
-  </si>
-  <si>
-    <t>MACACÃO PARA ELETRICISTA, Especificação: Produzido em tecido com retardo de chamas; Com gola tipo padre, com fechamento frontal em velcro, entre 2 e 3 em de largura; Mangas longas, tipo social; Meio cós em elástico; Com bolsos, na frente e atrás; Com faixas refletivas; Proteger de Arco elétrico, Chamas, Fogo (NR10) Cor azul ou cinza; tamanho G.</t>
-  </si>
-  <si>
-    <t>MACACÃO PARA ELETRICISTA, Especificação: Produzido em tecido com retardo de chamas; Com gola tipo padre, com fechamento frontal em velcro, entre 2 e 3 em de largura; Mangas longas, tipo social; Meio cós em elástico; Com bolsos, na frente e atrás; Com faixas refletivas; Proteger de Arco elétrico, Chamas, Fogo (NR10) Cor azul ou cinza; tamanho GG.</t>
+    <t>MACACÃO PARA ELETRICISTA, Especificação: Produzido em tecido com retardo de chamas; Com gola tipo padre, com fechamento frontal em velcro, entre 2 e 3 cm de largura; Mangas longas, tipo social; Meio cós em elástico; Com bolsos, na frente e atrás; Com faixas refletivas; Proteger de Arco elétrico, Chamas, Fogo (NR10)Cor azul ou cinza; tamanho M.</t>
+  </si>
+  <si>
+    <t>MACACÃO PARA ELETRICISTA, Especificação: Produzido em tecido com retardo de chamas; Com gola tipo padre, com fechamento frontal em velcro, entre 2 e 3 cm de largura; Mangas longas, tipo social; Meio cós em elástico; Com bolsos, na frente e atrás; Com faixas refletivas; Proteger de Arco elétrico, Chamas, Fogo (NR10)Cor azul ou cinza; tamanho G.</t>
+  </si>
+  <si>
+    <t>MACACÃO PARA ELETRICISTA, Especificação: Produzido em tecido com retardo de chamas; Com gola tipo padre, com fechamento frontal em velcro, entre 2 e 3 cm de largura; Mangas longas, tipo social; Meio cós em elástico; Com bolsos, na frente e atrás; Com faixas refletivas; Proteger de Arco elétrico, Chamas, Fogo (NR10) Cor azul ou cinza; tamanho GG.</t>
   </si>
   <si>
     <t>CINTURÃO DE SEGURANÇA TIPO PARAQUEDISTA, fivela em aço, ajuste no suspensório, cintura e pernas (Código SINAPI 36148) com design que permite distribuir o peso do usuário de forma equilibrada e confortável. Material: Cinto e Suspensórios: Confeccionado em fibras sintéticas de alta resistência, como poliéster ou poliamida, garantindo durabilidade, resistência ao desgaste e à abrasão. O material também deve ser resistente a intempéries e a danos causados por fatores ambientais. Fivelas: Fivelas em aço galvanizado ou aço de alta resistência, projetadas para garantir segurança e facilidade de ajuste. Ajuste: Ajuste nos suspensórios: O cinturão deve possuir ajuste nos suspensórios para garantir que o trabalhador tenha liberdade de movimento e o ajuste adequado ao seu corpo. Ajuste na cintura e nas pernas : Sistema de ajuste nas cinturas e nas pernas através de fivelas ou presilhas, permitindo uma adaptação segura e confortável a diferentes tipos de corpo e garantindo o uso correto e confortável durante o trabalho. Conexões e Ancoragem: O cinturão deve possuir pontos de ancoragem (normalmente na parte traseira ou frontal), que permitem a fixação de outros equipamentos de segurança, como o talabarte, garantindo uma retenção eficiente durante o uso. Estrutura: Cinturão: Design anatômico para maior conforto, com acolchoamento nas áreas de maior contato com o corpo (como a cintura e as pernas), reduzindo o desconforto durante o uso prolongado. Suspensórios: Deverão ser amplamente ajustáveis para proporcionar conforto e mobilidade ao trabalhador.</t>
@@ -970,7 +970,7 @@
     <t>ÓCULOS DE SEGURANÇA contra impacto com lente incolor, armação nylon, com proteção UVA e UVB (Código SINAPI 36152): Produto: Óculos de Segurança contra Impacto Aplicação: Equipamento de proteção individual (EPI) destinado à proteção dos olhos contra impactos, partículas volantes e radiação ultravioleta (UVA e UVB) em ambientes de trabalho, como construção civil, indústrias, laboratórios e atividades externas. Lente: Material: Lente de policarbonato, proporcionando alta resistência a impactos, garantindo proteção eficaz contra partículas volantes, faíscas e objetos em alta velocidade. Cor: Incolor, proporcionando visibilidade clara e sem distorção, ideal para ambientes de trabalho com baixa luminosidade ou onde é necessário manter a percepção de cores naturais. Proteção UVA/UVB: Lente com proteção contra radiação ultravioleta (UVA e UVB), proporcionando segurança adicional contra danos causados pela exposição ao sol, mesmo em ambientes externos. Armação: Material: Fabricada em nylon, material leve, flexível e resistente, garantindo conforto durante o uso prolongado e resistência a impactos e deformações. Design: Armação de formato ergonômico, que se ajusta ao contorno do rosto, proporcionando maior conforto e vedação contra a entrada de partículas ou líquidos nos olhos. Ajuste: As hastes podem ser ajustáveis, oferecendo maior conforto e melhor fixação na cabeça do usuário, garantindo que os óculos fiquem firmemente no lugar durante o trabalho. Certificação e Conformidade: O produto deve estar em conformidade com as normas de segurança exigidas pela NR-6 (Norma Regulamentadora de Equipamentos de Proteção Individual) e ABNT NBR 13639, garantindo a eficácia na proteção ocular contra riscos específicos de impacto e radiação.</t>
   </si>
   <si>
-    <t>CONE DE SINALIZAÇÃO, em PVC flexivel, H = 70/76 CM (NBR 15071) (Código SINAPI 34498) : Fabricado em PVC flexível de alta resistência, com propriedades de elasticidade e durabilidade, permitindo que o cone recupere sua forma original após ser pressionado ou deformado. O PVC flexível é resistente ao desgaste, intempéries e radiação UV, garantindo uma longa vida útil mesmo em condições adversas. Altura: O cone de sinalização dever possuir altura mínima variando entre 70 em a 76 em, conforme a necessidade e especificação do local de uso. Base: A base do cone é larga e projetada para garantir estabilidade, impedindo que o cone tombe facilmente em áreas de vento forte ou tráfego intenso. Cor: O cone é predominantemente laranja, com faixas reflexivas em cores contrastantes (geralmente branco ou amarelo) para garantir alta visibilidade durante o dia e à noite. Norma Técnica: Atendimento à NBR 15.071: Apresentar Relatórios de Ensaios, emitido por laboratório associado à Associação Brasileira das Instituições de Pesquisa Tecnológica e Inovação - ABIPTI, em nome da licitante, que comprove que o cone de sinalização médio atende à NBR 15.071. Atendimento à NBR 14.644: Apresentar Relatórios de Ensaios, emitido por laboratório associado à Associação Brasileira das Instituições de Pesquisa Tecnológica e Inovação - ABIPTI, em nome do fabricante da película, que comprove a refletividade (tipo III), adesão e exposição ao intemperismo do material refletivo, consoante a norma ABNT NBR 14.644. Visibilidade: O cone é projetado para ser altamente visível, mesmo em condições de baixa luminosidade, aumentando a segurança e evitando acidentes. Portabilidade: O material flexível torna o cone leve e fácil de manusear e transportar. Durabilidade: Resistente ao sol, chuva e outros fatores climáticos, o cone pode ser utilizado tanto em ambientes internos como externos, suportando condições climáticas adversas. Corpo: PVC flexível de alta resistência. Faixas Reflexivas: Material reflexivo (geralmente microesferas de vidro) para garantir a visibilidade noturna.</t>
+    <t>CONE DE SINALIZAÇÃO, em PVC flexível, H = 70 / 76 CM (NBR 15071) (Código SINAPI 34498) : Fabricado em PVC flexível de alta resistência, com propriedades de elasticidade e durabilidade, permitindo que o cone recupere sua forma original após ser pressionado ou deformado. O PVC flexível é resistente ao desgaste, intempéries e radiação UV, garantindo uma longa vida útil mesmo em condições adversas. Altura: O cone de sinalização dever possuir altura mínima variando entre 70 cm a 76 cm, conforme a necessidade e especificação do local de uso. Base: A base do cone é larga e projetada para garantir estabilidade, impedindo que o cone tombe facilmente em áreas de vento forte ou tráfego intenso. Cor: O cone é predominantemente laranja, com faixas reflexivas em cores contrastantes (geralmente branco ou amarelo) para garantir alta visibilidade durante o dia e à noite. Norma Técnica: Atendimento à NBR 15.071: Apresentar Relatórios de Ensaios, emitido por laboratório associado à Associação Brasileira das Instituições de Pesquisa Tecnológica e Inovação - ABIPTI, em nome da licitante, que comprove que o cone de sinalização médio atende à NBR 15.071. Atendimento à NBR 14.644: Apresentar Relatórios de Ensaios, emitido por laboratório associado à Associação Brasileira das Instituições de Pesquisa Tecnológica e Inovação - ABIPTI, em nome do fabricante da película, que comprove a refletividade (tipo III), adesão e exposição ao intemperismo do material refletivo, consoante a norma ABNT NBR 14.644. Visibilidade: O cone é projetado para ser altamente visível, mesmo em condições de baixa luminosidade, aumentando a segurança e evitando acidentes. Portabilidade: O material flexível torna o cone leve e fácil de manusear e transportar. Durabilidade: Resistente ao sol, chuva e outros fatores climáticos, o cone pode ser utilizado tanto em ambientes internos como externos, suportando condições climáticas adversas. Corpo: PVC flexível de alta resistência. Faixas Reflexivas: Material reflexivo (geralmente microesferas de vidro) para garantir a visibilidade noturna.</t>
   </si>
   <si>
     <t>BOTA DE SEGURANÇA com biqueira de aço e colarinho acolchoado (tamanhos 37 à 44) (Código SINAPI 12893). Produto: Bota de Segurança Aplicação: EPI (Equipamento de Proteção Individual) utilizado para proteção dos pés contra impactos, perfurações e riscos mecânicos, ideal para ambientes de trabalho com risco de lesões nos pés. Estrutura: Biqueira: Fabricada em aço de alta resistência, proporcionando proteção contra impactos e compressões em áreas de risco. Colarinho: Colarinho acolchoado, oferecendo conforto e proteção adicional ao tornozelo, evitando lesões por atrito e proporcionando maior estabilidade. Material da Parte Externa: Confeccionada em material sintético de alta resistência ou couro, garantindo durabilidade e resistência a desgastes, rasgos e abrasões. O material externo é resistente à água e outros elementos, adequado para uso em ambientes úmidos ou de poeira. Sola: Sola antiderrapante com desenhos especiais para proporcionar tração em diferentes tipos de superfície e evitar escorregões, aumentando a segurança no ambiente de trabalho. Fabricada em borracha de alta resistência, capaz de suportar condições adversas de temperatura e contato com substâncias agressivas. Forro Interno: Forro acolchoado e confortável, permitindo respirabilidade e absorção de suor, mantendo os pés secos e confortáveis durante o uso prolongado. Tamanhos: Disponível nos tamanhos 37 a 44 (numeração brasileira), atendendo a uma variedade de usuários.</t>
@@ -979,1105 +979,49 @@
     <t>FITA PARA SINALIZAÇÃO : Tipo de Produto: Fita para sinalização. Cor: Amarela e preta (disposição das cores: faixas alternadas ou conforme especificação visual de segurança). Dimensões: Comprimento: 200 metros. Largura: 7 cm. Material: Material resistente e durável, adequado para uso interno e externo. Pode ser composta por material plástico (PVC, polietileno ou similar), com adesivo ou auto-adesiva, dependendo do tipo de aplicação. Propriedades: Alta visibilidade, com contraste eficaz entre as cores amarela e preta, para garantir a segurança em ambientes de risco. Resistente à abrasão, intempéries e a condições adversas de temperatura e umidade. Ideal para demarcação de áreas de risco, obstáculos, sinalização de segurança em obras e outros ambientes que exijam a delimitação de áreas. Aplicação: Sinalização de áreas de risco, construção, trânsito, prevenção de acidentes, e outros tipos de utilização que requeiram delimitação e visibilidade clara. Normas e Regulamentações: Atender às normas de segurança aplicáveis, como NR-26 (Norma Regulamentadora de Sinalização de Segurança) ou outras relacionadas, caso necessário.</t>
   </si>
   <si>
-    <t>ALICATE DE BICO MEIA CANA LONGO 8&amp;" Bico: Reto, com tratamento térmico especial e corte temperado por indução, proporcionando maior durabilidade e resistência ao desgaste. Acabamento: Polido e cromado, garantindo resistência à corrosão e ao desgaste, além de um visual aprimorado. Cabo: Emborrachado e ergonômico, oferecendo maior conforto e segurança durante o uso prolongado. Bico: Longo e com ponta oval, ideal para trabalhos de precisão e acesso em locais de difícil alcance. Comprimento Total: 170mm (aproximadamente 8" de comprimento).</t>
-  </si>
-  <si>
-    <t>ALICATE PARA ELETRICISTA ISOLADO, Especificações: Tamanho 8&amp;"; Corpo em aço vanadium e empunhadura ergonômica e antideslizante em polímero anti-chamas, com abas protetoras arredondadas, produzida por injeção, com isolação até 1000V, norma NBR 9699; Tratamento térmico total e corte temperado por indução com dureza mínima de 62 - 64 HRC; Corte de arame macio com diâmetro máximo de aproximadamente O 3,0 mm, com resistência à tração mínima de 600 N/mmº?; Dispositivo para prensar terminais com seção até 10 mm?; Possuir ranhuras cruzadas nas faces dos mordentes; Marca de Referência: GEDORE/BELZER, ou superior.</t>
-  </si>
-  <si>
-    <t>ALICATE TERRÔMETRO, Display LCD, Especificações: 4 Dígitos 1000 Contagens com Iluminação; Modo Relevo / Zero; Indicação de Sobre faixa: "OL” é exibido; Alarme de Máximo. Data Hold; Dois Níveis de Iluminação; Indicação de Bateria Fraca: O sinal" " aparece; Mudança de Faixa: Automática; Desligamento Automático: Configurável de 5-20 minutos ou Desavado; Abertura de Garra:30mm; Ambiente de Operação:0ºC a 40ºC, RH &lt; 90%, não condensado; Ambiente de Armazenamento: 0ºC a 60ºC, RH &lt; 90%, com a bateria removida; Altitude de Operação: até 2000m; Alimentação: 4x 1,5V tamanho AA; Duração da Bateria: Aprox. 20 horas (pilhas alcalinas); Segurança/ Conformidade: IEC61010 Sobretensão CAT III 300V e Dupla isolação; Campo Magnético Externo: &lt;40 A/m.; Campo Elétrico Externo: &lt;l V/m.; Duração de Medição Única: | seg.; Dimensões:304(A) x 104(L) x 68(P)mm.; Peso: Aprox. entre 1000 á 1600g (incluindo bateria). Garantia do Fabricante de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>JOGO DE CHAVE DE FENDA ISOLADA: Especificações: 150NR/160NR, simples e cruzada isoladas 1000 V Tipo de Produto: Jogo de chaves de fenda isoladas. Função: Ferramenta para apertar e desapertar parafusos, especialmente em ambientes onde há risco de choque elétrico. Material das Lâminas: Aço de alta resistência, tratado termicamente para maior durabilidade e resistência ao desgaste. Isolamento Elétrico: As chaves devem ser isoladas com material resistente, proporcionando proteção contra choques elétricos. A isolação deve ser de alta qualidade, com classificação para uso em ambientes elétricos, conforme norma NBR 15684 ou equivalente. Tensão de Isolamento: As chaves devem ser adequadas para uso em circuitos elétricos com tensão até 1000V em corrente alternada (AC) e 1500V em corrente contínua (DC), conforme normas de segurança internacionais. Design da Lâmina: Lâmina de ponta fina, com borda plana para garantir um bom encaixe em parafusos de fenda. Cabo: Cabo ergonômico, antiderrapante, em material de alta resistência, para garantir conforto e segurança durante o uso. O cabo deve ser isolado e com identificação visível do limite de tensão de segurança. Quantidade: O jogo deve conter chaves de diversos tamanhos, como: 1 chave de fenda pequena (aproximadamente 3,5 mm), 1 chave de fenda média (aproximadamente 5,5 mm), 1 chave de fenda grande (aproximadamente 7 mm), 1 chave de fenda extra grande (aproximadamente 10 mm), Quantidade de peças e tamanhos pode variar, sendo o jogo adequado para as necessidades do usuário. Normas e Certificações: O produto deve estar em conformidade com normas de segurança nacionais e internacionais, como a ABNT NBR 15684 ou equivalente, e possuir certificações de qualidade relacionadas à isolação elétrica.</t>
-  </si>
-  <si>
-    <t>TRENA A LASER DIGITAL: Medição em ambiente externo de até 100 metros; Precisão de +/- 2mm; Unidade de medição em m/in/ft/ft + in; Classe do laser 2; Display em HD transparente de 1 a 2"; Aprova de água, resistente a impactos, com proteção a pó e pingos d'água; Botões em borracha macia; Temperatura de funcionamento entre O à 50 graus; Temperatura de armazenamento entre -10 a - 60 graus; Alimentação em bateria tipo alcalina; Garantia de 12 meses.</t>
-  </si>
-  <si>
-    <t>TRENA LASER: Fita Métrica 3 em 1, distância mínima de 50 metros; fiita métrica de 5 metros; marcação cruzada; resistente a queda, água, e poeira; garantia de 12 meses.</t>
+    <t>ALICATE DE BICO MEIA CANA LONGO 8" Bico: Reto, com tratamento térmico especial e corte temperado por indução, proporcionando maior durabilidade e resistência ao desgaste. Acabamento: Polido e cromado, garantindo resistência à corrosão e ao desgaste, além de um visual aprimorado. Cabo: Emborrachado e ergonômico, oferecendo maior conforto e segurança durante o uso prolongado. Bico: Longo e com ponta oval, ideal para trabalhos de precisão e acesso em locais de difícil alcance. Comprimento Total: 170mm (aproximadamente 8" de comprimento).</t>
+  </si>
+  <si>
+    <t>ALICATE PARA ELETRICISTA ISOLADO, Especificações: Tamanho 8"; Corpo em aço vanadium e empunhadura ergonômica e antideslizante em polímero anti-chamas, com abas protetoras arredondadas, produzida por injeção, com isolação até 1000V, norma NBR 9699; Tratamento térmico total e corte temperado por indução com dureza mínima de 62 - 64 HRC; Corte de arame macio com diâmetro máximo de aproximadamente Ø 3,0 mm, com resistência à tração mínima de 600 N/mm²; Dispositivo para prensar terminais com seção até 10 mm²; Possuir ranhuras cruzadas nas faces dos mordentes; Marca de Referência: GEDORE/BELZER, ou superior.</t>
+  </si>
+  <si>
+    <t>ALICATE TERRÔMETRO, Display LCD, Especificações: 4 Dígitos 1000 Contagens com Iluminação; Modo Relevo / Zero; Indicação de Sobre faixa: ´OL´ é exibido; Alarme de Máximo. Data Hold; Dois Níveis de Iluminação; Indicação de Bateria Fraca: O sinal" " aparece; Mudança de Faixa: Automática; Desligamento Automático: Configurável de 5~20 minutos ou Desavado; Abertura de Garra:30mm; Ambiente de Operação:0°C a 40°C, RH &lt; 90%, não condensado; Ambiente de Armazenamento: 0°C a 60°C, RH &lt; 90%, com a bateria removida; Altitude de Operação: até 2000m; Alimentação: 4x 1,5V tamanho AA; Duração da Bateria: Aprox. 20 horas (pilhas alcalinas); Segurança/ Conformidade: IEC61010 Sobretensão CAT III 300V e Dupla isolação; Campo Magnético Externo: &lt;40 A/m.; Campo Elétrico Externo: &lt;1 V/m.; Duração de Medição Única: 1 seg.; Dimensões:304(A) x 104(L) x 68(P)mm.; Peso: Aprox. entre 1000 á 1600g (incluindo bateria). Garantia do Fabricante de 12 (doze) meses.</t>
+  </si>
+  <si>
+    <t>JOGO DE CHAVE DE FENDA ISOLADA: Especificações: 150NR/160NR, simples e cruzada isoladas 1000V Tipo de Produto: Jogo de chaves de fenda isoladas. Função: Ferramenta para apertar e desapertar parafusos, especialmente em ambientes onde há risco de choque elétrico. Material das Lâminas: Aço de alta resistência, tratado termicamente para maior durabilidade e resistência ao desgaste. Isolamento Elétrico: As chaves devem ser isoladas com material resistente, proporcionando proteção contra choques elétricos. A isolação deve ser de alta qualidade, com classificação para uso em ambientes elétricos, conforme norma NBR 15684 ou equivalente. Tensão de Isolamento: As chaves devem ser adequadas para uso em circuitos elétricos com tensão até 1000V em corrente alternada (AC) e 1500V em corrente contínua (DC), conforme normas de segurança internacionais. Design da Lâmina: Lâmina de ponta fina, com borda plana para garantir um bom encaixe em parafusos de fenda. Cabo: Cabo ergonômico, antiderrapante, em material de alta resistência, para garantir conforto e segurança durante o uso. O cabo deve ser isolado e com identificação visível do limite de tensão de segurança. Quantidade: O jogo deve conter chaves de diversos tamanhos, como: 1 chave de fenda pequena (aproximadamente 3,5 mm), 1 chave de fenda média (aproximadamente 5,5 mm), 1 chave de fenda grande (aproximadamente 7 mm), 1 chave de fenda extra grande (aproximadamente 10 mm), Quantidade de peças e tamanhos pode variar, sendo o jogo adequado para as necessidades do usuário. Normas e Certificações: O produto deve estar em conformidade com normas de segurança nacionais e internacionais, como a ABNT NBR 15684 ou equivalente, e possuir certificações de qualidade relacionadas à isolação elétrica.</t>
+  </si>
+  <si>
+    <t>TRENA A LASER DIGITAL: Medição em ambiente externo de até 100 metros; Precisão de +/- 2mm; Unidade de medição em m/in/ft/ft + in; Classe do laser 2; Display em HD transparente de 1 a 2"; Aprova de água, resistente a impactos, com proteção a pó e pingos d'água; Botões em borracha macia; Temperatura de funcionamento entre 0 à 50 graus; Temperatura de armazenamento entre -10 a - 60 graus; Alimentação em bateria tipo alcalina; Garantia de 12 meses.</t>
+  </si>
+  <si>
+    <t>TRENA LASER: Fita Métrica 3 em 1Distância mínima de 50 metros; fiita métrica de 5 metros; marcação cruzada; resistente a queda, água, e poeira; garantia de 12 meses.</t>
   </si>
   <si>
     <t>CHAVE GRIFO 12 POLEGADAS: Especificações: Alta resistência com corpo em aço fundido : Tipo de Produto: Chave Grifo (ou Chave Ajustável tipo grifo). Tamanho: 12 polegadas (aproximadamente 300 mm de comprimento total). Material do Corpo: Corpo em aço fundido de alta resistência, com tratamento térmico para garantir maior durabilidade e resistência ao desgaste, esforços de tração e compressão. Material das Mandíbulas: Mandíbulas de aço carbono ou outro material de alta resistência, com dentes ou superfície tratada para proporcionar maior aderência e firmeza durante a utilização. Design e Ajuste: Mecanismo de ajuste rápido para permitir a fixação precisa de peças de diferentes tamanhos. A abertura da mandíbula deve ser ajustável e segura, com dentes ou ranhuras para melhor encaixe em porcas, tubos e outros objetos. Revestimento: Superfície com acabamento pintado ou galvanizado, para maior proteção contra corrosão, desgaste e intempéries, garantindo maior vida útil do produto em ambientes industriais e de construção. Características do Cabo: Cabo ergonômico, em formato adequado para proporcionar maior conforto e controle durante o uso, com superfície antiderrapante ou revestimento em material que proporcione maior aderência e segurança. Resistência e Durabilidade: A chave grifo deve ser projetada para suportar esforços de torque elevados e não deformar sob cargas normais de trabalho. Ideal para uso em tubulações, montagem e reparos em diversos tipos de sistemas mecânicos. Aplicação: Usada para apertar ou afrouxar peças cilíndricas, como tubos, porcas e parafusos, em ambientes industriais, construção civil, e manutenção. Normas e Certificações: O produto deve atender às normas de qualidade e segurança aplicáveis, como normas ISO ou ABNT, que garantam sua resistência e adequação para o uso proposto.</t>
   </si>
   <si>
-    <t>JOGO DE TARRAXAS: Especificações: Tipo de Produto: Jogo de tarrachas (também conhecidas como tarrachas de rosca ou tarracha). Composição do Kit: O kit deve incluir tarrachas macho e fêmea (também chamadas de macho e fêmea de rosca), de modo a permitir a criação de roscas internas e externas. Rosca Interna: Tarracha fêmea com rosca interna. Rosca Externa: Tarracha macho com rosca externa. O kit deve incluir várias tarrachas de diferentes tamanhos, para atender a uma gama de necessidades de roscagem e rosqueamento. Material: Fabricado em aço de alta resistência, tratado termicamente para garantir durabilidade e resistência ao desgaste durante o uso. As tarrachas podem ser revestidas com material anticorrosivo (galvanizado ou outra proteção) para garantir maior vida útil, especialmente em ambientes industriais. Tamanhos e Dimensões: O Kkit deve conter tarrachas de diferentes tamanhos, conforme especificação técnica, e ser compatível com os principais padrões de roscas (métricas ou polegadas) em uso no mercado, incluindo tarrachas para roscas comuns, métricas e outras. Acabamento das Roscas: As roscas das tarrachas devem ser de alta precisão, com acabamento adequado para garantir um corte limpo e sem rebarbas, proporcionando um bom acabamento e funcionamento das roscas internas e externas. Manuseio e Aplicação: As tarrachas devem ser de fácil manuseio e possibilitar o uso manual ou com ferramentas adequadas, como chaves de tarraxa, e devem ser projetadas para uso em diferentes materiais, como metais, plásticos e outros materiais industriais. Manual de Instruções: O kit deve acompanhar manual de instruções detalhado, com orientações sobre o uso adequado, cuidados e segurança, além de recomendações para a manutenção das tarrachas. Aplicação: Utilizado para criar roscas internas e externas em materiais de diferentes tipos, ideal para trabalhos de mecânica, manutenção, e em oficinas de corte e roscagem. Normas e Certificações: O produto deve atender a normas de segurança e qualidade aplicáveis, como as normas ISO ou ABNT, que garantam a precisão, durabilidade e segurança no uso do kit de tarrachas.</t>
-  </si>
-  <si>
-    <t>ALICATE AMPERIMETRO: Alicate amperímetro digital Minipa ET-3200B 1000º ) Display digital. Indicador de bateria baixa. Tensão máxima da corrente alternada: 750V. Atinge uma tensão máxima de corrente contínua de 1000V. Frequência máxima de 400Hz. Resistência máxima de 45000002. Trabalha com uma bateria. Inclui: chumbo de teste e manual. Pesa 337g. Precisão na medição da corrente circulante.</t>
-  </si>
-  <si>
-    <t>ALICATE VOLT AMPERÍMETRO Especificações: CAT III 600V: — TRUE - RMS -400A/600V; Medição de resistência até 40k02 com detecção de continuidade; Medição de capacitância e temperatura; Medição de frequência; Monitor amplo, com iluminação de fundo e fácil leitura; Botão de retenção; Bolsa de transporte flexível; Com bateria de 9V; e pontas de prova; conforme normas da ABNT,, ou similar.</t>
-  </si>
-  <si>
-    <t>ALICATE HIDRÁULICO PRENSA TERMINAL: Especificações: Alicate de alta pressão para crimpagem de terminais em cabos de cobre e alumínio, Crimpa de 10mm? à 300mm2; Possui 12 matrizes hexagonais em mm: 10, 16, 25, 35, 50, 70, 95, 120, 185, 240, 300 mmº?; Pressão máxima 16 toneladas; 1 jogo de reparos; 1 maleta. Garantia de 12 meses</t>
-  </si>
-  <si>
-    <t>ALICATE DE CRIMPAR TERMINAL Tipo de Alicate: Alicate de crimpar indicado para terminais RJ45, RJ12 e RJ11. Ideal para aplicação em cabos de rede e telefonia, permitindo crimpar conectores modulares com precisão e segurança. Material do Cabo: O cabo do alicate será fabricado em aço de alta resistência, garantindo durabilidade e resistência ao desgaste, proporcionando um excelente desempenho durante o uso contínuo. Material da Cabeça: A cabeça do alicate será produzida em aço carbono, proporcionando maior resistência e durabilidade, além de garantir a precisão na crimpagem dos conectores. Capacidade de Crimpagem: O alicate será compatível com conectores RJ45, RJ12 e RJI11, que são comumente usados em sistemas de cabeamento estruturado e telefonia. A crimpagem deverá ser precisa, garantindo uma conexão segura e de alta qualidade, sem perdas de sinal ou falhas na comunicação. Ergonomia e Conforto: O alicate contará com empunhadura ergonômica, proporcionando maior conforto ao operador, minimizando o esforço durante o uso contínuo. Empunhadura antideslizante para maior segurança e controle do alicate, evitando deslizamentos durante o uso. Durabilidade e Resistência: O material de aço carbono da cabeça oferece maior resistência ao desgaste e impactos, garantindo maior durabilidade do produto. Cabo de aço resistente, projetado para suportar o uso contínuo e intenso em diferentes condições de trabalho. Normas e Certificações: O alicate deverá atender a normas internacionais de qualidade para ferramentas manuais de crimpagem, garantindo seu desempenho adequado e confiabilidade. O fornecedor deverá garantir que o produto seja livre de defeitos de fabricação e tenha a durabilidade necessária para atender a necessidades profissionais.</t>
-  </si>
-  <si>
-    <t>ALICATE DESCASCADOR DE FIO, CORTADOR E CRIPADOR Especificações: Tamanho &amp;"; Em aço carbono; Cabo emborachado; Corta e desencapar fios de 0,2 mm ?a 6,0 mmz; Prensa: Terminais de ignição de 7,0 mm a 8,0 mm; Terminais sem isolamento 0,5 mmº? a 6,0 mm2; Terminais com isolamentos 0,5 mmº a 2,5 mm2</t>
+    <t>JOGO DE TARRAXAS: Especificações: Tipo de Produto: Jogo de tarrachas (também conhecidas como tarrachas de rosca ou tarracha). Composição do Kit: O kit deve incluir tarrachas macho e fêmea (também chamadas de macho e fêmea de rosca), de modo a permitir a criação de roscas internas e externas. Rosca Interna: Tarracha fêmea com rosca interna. Rosca Externa: Tarracha macho com rosca externa. O kit deve incluir várias tarrachas de diferentes tamanhos, para atender a uma gama de necessidades de roscagem e rosqueamento. Material: Fabricado em aço de alta resistência, tratado termicamente para garantir durabilidade e resistência ao desgaste durante o uso. As tarrachas podem ser revestidas com material anticorrosivo (galvanizado ou outra proteção) para garantir maior vida útil, especialmente em ambientes industriais. Tamanhos e Dimensões: O kit deve conter tarrachas de diferentes tamanhos, conforme especificação técnica, e ser compatível com os principais padrões de roscas (métricas ou polegadas) em uso no mercado, incluindo tarrachas para roscas comuns, métricas e outras. Acabamento das Roscas: As roscas das tarrachas devem ser de alta precisão, com acabamento adequado para garantir um corte limpo e sem rebarbas, proporcionando um bom acabamento e funcionamento das roscas internas e externas. Manuseio e Aplicação: As tarrachas devem ser de fácil manuseio e possibilitar o uso manual ou com ferramentas adequadas, como chaves de tarraxa, e devem ser projetadas para uso em diferentes materiais, como metais, plásticos e outros materiais industriais. Manual de Instruções: O kit deve acompanhar manual de instruções detalhado, com orientações sobre o uso adequado, cuidados e segurança, além de recomendações para a manutenção das tarrachas. Aplicação: Utilizado para criar roscas internas e externas em materiais de diferentes tipos, ideal para trabalhos de mecânica, manutenção, e em oficinas de corte e roscagem. Normas e Certificações: O produto deve atender a normas de segurança e qualidade aplicáveis, como as normas ISO ou ABNT, que garantam a precisão, durabilidade e segurança no uso do kit de tarrachas.</t>
+  </si>
+  <si>
+    <t>ALICATE AMPERIMETRO: Alicate amperímetro digital Minipa ET-3200B 1000ª ) Display digital. Indicador de bateria baixa. Tensão máxima da corrente alternada: 750V. Atinge uma tensão máxima de corrente contínua de 1000V. Frequência máxima de 400Hz. Resistência máxima de 450000Ω. Trabalha com uma bateria. Inclui: chumbo de teste e manual. Pesa 337g. Precisão na medição da corrente circulante.</t>
+  </si>
+  <si>
+    <t>ALICATE VOLT AMPERÍMETRO Especificações: CAT III 600V: – TRUE - RMS -400A/600V; Medição de resistência até 40kΩ com detecção de continuidade; Medição de capacitância e temperatura; Medição de frequência; Monitor amplo, com iluminação de fundo e fácil leitura; Botão de retenção; Bolsa de transporte flexível; Com bateria de 9V; e pontas de prova; conforme normas da ABNT., ou similar.</t>
+  </si>
+  <si>
+    <t>ALICATE HIDRÁULICO PRENSA TERMINAL: Especificações: Alicate de alta pressão para crimpagem de terminais em cabos de cobre e alumínio, Crimpa de 10mm2 à 300mm2; Possui 12 matrizes hexagonais em mm: 10, 16, 25, 35, 50, 70, 95, 120, 185, 240, 300 mm2 ; Pressão máxima 16 toneladas; 1 jogo de reparos; 1 maleta. Garantia de 12 meses</t>
+  </si>
+  <si>
+    <t>ALICATE DE CRIMPAR TERMINAL Tipo de Alicate: Alicate de crimpar indicado para terminais RJ45, RJ12 e RJ11. Ideal para aplicação em cabos de rede e telefonia, permitindo crimpar conectores modulares com precisão e segurança. Material do Cabo: O cabo do alicate será fabricado em aço de alta resistência, garantindo durabilidade e resistência ao desgaste, proporcionando um excelente desempenho durante o uso contínuo. Material da Cabeça: A cabeça do alicate será produzida em aço carbono, proporcionando maior resistência e durabilidade, além de garantir a precisão na crimpagem dos conectores. Capacidade de Crimpagem: O alicate será compatível com conectores RJ45, RJ12 e RJ11, que são comumente usados em sistemas de cabeamento estruturado e telefonia. A crimpagem deverá ser precisa, garantindo uma conexão segura e de alta qualidade, sem perdas de sinal ou falhas na comunicação. Ergonomia e Conforto: O alicate contará com empunhadura ergonômica, proporcionando maior conforto ao operador, minimizando o esforço durante o uso contínuo. Empunhadura antideslizante para maior segurança e controle do alicate, evitando deslizamentos durante o uso. Durabilidade e Resistência: O material de aço carbono da cabeça oferece maior resistência ao desgaste e impactos, garantindo maior durabilidade do produto. Cabo de aço resistente, projetado para suportar o uso contínuo e intenso em diferentes condições de trabalho. Normas e Certificações: O alicate deverá atender a normas internacionais de qualidade para ferramentas manuais de crimpagem, garantindo seu desempenho adequado e confiabilidade. O fornecedor deverá garantir que o produto seja livre de defeitos de fabricação e tenha a durabilidade necessária para atender a necessidades profissionais.</t>
+  </si>
+  <si>
+    <t>ALICATE DESCASCADOR DE FIO, CORTADOR E CRIPADOR Especificações: Tamanho 8"; Em aço carbono; Cabo emborachado; Corta e desencapar fios de 0,2 mm 2 a 6,0 mm2; Prensa: Terminais de ignição de 7,0 mm a 8,0 mm; Terminais sem isolamento 0,5 mm 2 a 6,0 mm2; Terminais com isolamentos 0,5 mm 2 a 2,5 mm2;</t>
   </si>
   <si>
     <t>CHAVE TESTE DETECTOR TENSÃO, Chave Teste Detector de Tensão (Caneta LED, Medidor Sonoro, 12V - 1000V): Tipo de Produto: Chave teste detector de tensão (caneta teste de tensão elétrica). Função Principal: Utilizada para detecção de tensão elétrica em circuitos, fios e equipamentos eletrônicos, sem a necessidade de contato direto com partes energizadas. Faixa de Tensão: A chave teste deve ser capaz de medir e indicar tensões elétricas no intervalo de 12V a 1000V, tanto em corrente alternada (AC) quanto corrente contínua (DC), para garantir versatilidade em diferentes tipos de circuitos. Normas e Certificações: O produto deve estar em conformidade com as normas de segurança e qualidade para medidores e testadores de tensão elétrica, como as normas IEC, NBR, ou outras aplicáveis.</t>
   </si>
   <si>
-    <t>PISTOLA PARA SILICONE, Tubular profissional reforçada, aplicador Profissional Tubo Reforçado Silicone Rejunte 23cm possui altura total de 142mm. Com largura total de S4mm e comprimento total de 295mm. Tipo: Pistola para silicone tubular profissional reforçada, projetada para uso intensivo e durabilidade. Aplicação: Ideal para aplicação de silicone e rejunte em diversas superfícies, proporcionando um acabamento preciso e eficiente. Estrutura: Fabricada com tubo reforçado, garantindo resistência e estabilidade durante o uso. Dimensões: Altura Total: 142mm Largura Total: S4mm Comprimento Total: 295mm Design: Com empunhadura confortável e estrutura robusta, adequada para profissionais que exigem desempenho e resistência durante o trabalho.</t>
-  </si>
-  <si>
-    <t>TRENA profissional com caixa plástica emborrachada 10m x 25mm : Tipo de Produto: Trena profissional de medição. Comprimento: 10 metros. Largura da Fita: 25 mm. Material da Fita: A fita deve ser fabricada em material resistente, como aço ou fibra de vidro, com acabamento antiabrasivo e pintura fosca para garantir durabilidade e resistência ao desgaste. Caixa: Caixa plástica de alta resistência, emborrachada, projetada para garantir maior conforto durante o manuseio e proteger a trena contra impactos e quedas. Mecanismo de Recolhimento: Sistema de recolhimento automático da fita com botão de travamento para garantir maior segurança e facilitar o uso. A trena deve ter mecanismo de bloqueio da fita para fixação de medições durante o trabalho. Precisão: A trena deve garantir medições precisas, com marcação clara e visível, sem deformações ou estiramentos da fita ao longo do tempo. Resistência e Durabilidade: O produto deve ser projetado para suportar o uso em condições profissionais</t>
-  </si>
-  <si>
-    <t>230,30</t>
-  </si>
-  <si>
-    <t>42,94</t>
-  </si>
-  <si>
-    <t>41,86</t>
-  </si>
-  <si>
-    <t>51,38</t>
-  </si>
-  <si>
-    <t>14,44</t>
-  </si>
-  <si>
-    <t>719,62</t>
-  </si>
-  <si>
-    <t>362,87</t>
-  </si>
-  <si>
-    <t>347,97</t>
-  </si>
-  <si>
-    <t>361,33</t>
-  </si>
-  <si>
-    <t>638,66</t>
-  </si>
-  <si>
-    <t>194,18</t>
-  </si>
-  <si>
-    <t>175,93</t>
-  </si>
-  <si>
-    <t>10,63</t>
-  </si>
-  <si>
-    <t>101,46</t>
-  </si>
-  <si>
-    <t>100,46</t>
-  </si>
-  <si>
-    <t>24,20</t>
-  </si>
-  <si>
-    <t>39,49</t>
-  </si>
-  <si>
-    <t>87,42</t>
-  </si>
-  <si>
-    <t>2624,33</t>
-  </si>
-  <si>
-    <t>167,35</t>
-  </si>
-  <si>
-    <t>222,32</t>
-  </si>
-  <si>
-    <t>197,11</t>
-  </si>
-  <si>
-    <t>69,47</t>
-  </si>
-  <si>
-    <t>314,15</t>
-  </si>
-  <si>
-    <t>154,27</t>
-  </si>
-  <si>
-    <t>233,30</t>
-  </si>
-  <si>
-    <t>367,00</t>
-  </si>
-  <si>
-    <t>77,67</t>
-  </si>
-  <si>
-    <t>66,50</t>
-  </si>
-  <si>
-    <t>27,85</t>
-  </si>
-  <si>
-    <t>68,48</t>
-  </si>
-  <si>
-    <t>25,48</t>
-  </si>
-  <si>
-    <t>189,24</t>
-  </si>
-  <si>
-    <t>229,63</t>
-  </si>
-  <si>
-    <t>29,55</t>
-  </si>
-  <si>
-    <t>604,44</t>
-  </si>
-  <si>
-    <t>459,33</t>
-  </si>
-  <si>
-    <t>283,00</t>
-  </si>
-  <si>
-    <t>513,33</t>
-  </si>
-  <si>
-    <t>741,22</t>
-  </si>
-  <si>
-    <t>1503,33</t>
-  </si>
-  <si>
-    <t>1551,24</t>
-  </si>
-  <si>
-    <t>602,67</t>
-  </si>
-  <si>
-    <t>230,91</t>
-  </si>
-  <si>
-    <t>454,89</t>
-  </si>
-  <si>
-    <t>129,58</t>
-  </si>
-  <si>
-    <t>257,92</t>
-  </si>
-  <si>
-    <t>60,84</t>
-  </si>
-  <si>
-    <t>627,58</t>
-  </si>
-  <si>
-    <t>36,30</t>
-  </si>
-  <si>
-    <t>54,45</t>
-  </si>
-  <si>
-    <t>360,53</t>
-  </si>
-  <si>
-    <t>27,46</t>
-  </si>
-  <si>
-    <t>34,90</t>
-  </si>
-  <si>
-    <t>86,48</t>
-  </si>
-  <si>
-    <t>110,30</t>
-  </si>
-  <si>
-    <t>43,56</t>
-  </si>
-  <si>
-    <t>147,17</t>
-  </si>
-  <si>
-    <t>141,16</t>
-  </si>
-  <si>
-    <t>66,02</t>
-  </si>
-  <si>
-    <t>1,60</t>
-  </si>
-  <si>
-    <t>1,28</t>
-  </si>
-  <si>
-    <t>1,12</t>
-  </si>
-  <si>
-    <t>1,05</t>
-  </si>
-  <si>
-    <t>1,42</t>
-  </si>
-  <si>
-    <t>1,19</t>
-  </si>
-  <si>
-    <t>1,13</t>
-  </si>
-  <si>
-    <t>0,91</t>
-  </si>
-  <si>
-    <t>13,49</t>
-  </si>
-  <si>
-    <t>14,45</t>
-  </si>
-  <si>
-    <t>11,50</t>
-  </si>
-  <si>
-    <t>11,74</t>
-  </si>
-  <si>
-    <t>9,72</t>
-  </si>
-  <si>
-    <t>17,11</t>
-  </si>
-  <si>
-    <t>14,62</t>
-  </si>
-  <si>
-    <t>9,77</t>
-  </si>
-  <si>
-    <t>10,35</t>
-  </si>
-  <si>
-    <t>9,28</t>
-  </si>
-  <si>
-    <t>13,36</t>
-  </si>
-  <si>
-    <t>14,96</t>
-  </si>
-  <si>
-    <t>13,22</t>
-  </si>
-  <si>
-    <t>10,40</t>
-  </si>
-  <si>
-    <t>10,65</t>
-  </si>
-  <si>
-    <t>37,63</t>
-  </si>
-  <si>
-    <t>21,02</t>
-  </si>
-  <si>
-    <t>15,04</t>
-  </si>
-  <si>
-    <t>28,20</t>
-  </si>
-  <si>
-    <t>14,54</t>
-  </si>
-  <si>
-    <t>88,30</t>
-  </si>
-  <si>
-    <t>154,35</t>
-  </si>
-  <si>
-    <t>171,67</t>
-  </si>
-  <si>
-    <t>266,67</t>
-  </si>
-  <si>
-    <t>101,67</t>
-  </si>
-  <si>
-    <t>123,33</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>278,33</t>
-  </si>
-  <si>
-    <t>43,10</t>
-  </si>
-  <si>
-    <t>59,66</t>
-  </si>
-  <si>
-    <t>49,11</t>
-  </si>
-  <si>
-    <t>57,87</t>
-  </si>
-  <si>
-    <t>58,02</t>
-  </si>
-  <si>
-    <t>23,63</t>
-  </si>
-  <si>
-    <t>18,70</t>
-  </si>
-  <si>
-    <t>0,98</t>
-  </si>
-  <si>
-    <t>5,08</t>
-  </si>
-  <si>
-    <t>6,03</t>
-  </si>
-  <si>
-    <t>342,20</t>
-  </si>
-  <si>
-    <t>40,85</t>
-  </si>
-  <si>
-    <t>46,93</t>
-  </si>
-  <si>
-    <t>2816,33</t>
-  </si>
-  <si>
-    <t>4,38</t>
-  </si>
-  <si>
-    <t>2,23</t>
-  </si>
-  <si>
-    <t>2,96</t>
-  </si>
-  <si>
-    <t>3,61</t>
-  </si>
-  <si>
-    <t>4,63</t>
-  </si>
-  <si>
-    <t>6,52</t>
-  </si>
-  <si>
-    <t>26,79</t>
-  </si>
-  <si>
-    <t>33,72</t>
-  </si>
-  <si>
-    <t>41,83</t>
-  </si>
-  <si>
-    <t>57,72</t>
-  </si>
-  <si>
-    <t>61,49</t>
-  </si>
-  <si>
-    <t>63,44</t>
-  </si>
-  <si>
-    <t>10,02</t>
-  </si>
-  <si>
-    <t>14,60</t>
-  </si>
-  <si>
-    <t>23,66</t>
-  </si>
-  <si>
-    <t>26,60</t>
-  </si>
-  <si>
-    <t>34,42</t>
-  </si>
-  <si>
-    <t>12,61</t>
-  </si>
-  <si>
-    <t>35,24</t>
-  </si>
-  <si>
-    <t>57,16</t>
-  </si>
-  <si>
-    <t>63,76</t>
-  </si>
-  <si>
-    <t>68,18</t>
-  </si>
-  <si>
-    <t>94,20</t>
-  </si>
-  <si>
-    <t>961,32</t>
-  </si>
-  <si>
-    <t>490,89</t>
-  </si>
-  <si>
-    <t>78,84</t>
-  </si>
-  <si>
-    <t>0,96</t>
-  </si>
-  <si>
-    <t>1,07</t>
-  </si>
-  <si>
-    <t>1,86</t>
-  </si>
-  <si>
-    <t>2,55</t>
-  </si>
-  <si>
-    <t>1,75</t>
-  </si>
-  <si>
-    <t>1,48</t>
-  </si>
-  <si>
-    <t>1,16</t>
-  </si>
-  <si>
-    <t>1,10</t>
-  </si>
-  <si>
-    <t>0,78</t>
-  </si>
-  <si>
-    <t>2,26</t>
-  </si>
-  <si>
-    <t>2,68</t>
-  </si>
-  <si>
-    <t>3,32</t>
-  </si>
-  <si>
-    <t>8,84</t>
-  </si>
-  <si>
-    <t>16,27</t>
-  </si>
-  <si>
-    <t>21,98</t>
-  </si>
-  <si>
-    <t>3,52</t>
-  </si>
-  <si>
-    <t>3,29</t>
-  </si>
-  <si>
-    <t>7,05</t>
-  </si>
-  <si>
-    <t>7,45</t>
-  </si>
-  <si>
-    <t>6,73</t>
-  </si>
-  <si>
-    <t>22,70</t>
-  </si>
-  <si>
-    <t>15,79</t>
-  </si>
-  <si>
-    <t>14,32</t>
-  </si>
-  <si>
-    <t>15,09</t>
-  </si>
-  <si>
-    <t>17,82</t>
-  </si>
-  <si>
-    <t>7,67</t>
-  </si>
-  <si>
-    <t>8,39</t>
-  </si>
-  <si>
-    <t>13,63</t>
-  </si>
-  <si>
-    <t>341,58</t>
-  </si>
-  <si>
-    <t>447,26</t>
-  </si>
-  <si>
-    <t>519,78</t>
-  </si>
-  <si>
-    <t>81,62</t>
-  </si>
-  <si>
-    <t>14,87</t>
-  </si>
-  <si>
-    <t>12,65</t>
-  </si>
-  <si>
-    <t>25,32</t>
-  </si>
-  <si>
-    <t>8,89</t>
-  </si>
-  <si>
-    <t>13,58</t>
-  </si>
-  <si>
-    <t>2763,60</t>
-  </si>
-  <si>
-    <t>515,28</t>
-  </si>
-  <si>
-    <t>502,32</t>
-  </si>
-  <si>
-    <t>308,28</t>
-  </si>
-  <si>
-    <t>158,84</t>
-  </si>
-  <si>
-    <t>4317,72</t>
-  </si>
-  <si>
-    <t>2902,96</t>
-  </si>
-  <si>
-    <t>2783,76</t>
-  </si>
-  <si>
-    <t>2167,98</t>
-  </si>
-  <si>
-    <t>7663,92</t>
-  </si>
-  <si>
-    <t>2330,16</t>
-  </si>
-  <si>
-    <t>1407,44</t>
-  </si>
-  <si>
-    <t>255,12</t>
-  </si>
-  <si>
-    <t>12175,20</t>
-  </si>
-  <si>
-    <t>2210,12</t>
-  </si>
-  <si>
-    <t>580,80</t>
-  </si>
-  <si>
-    <t>473,88</t>
-  </si>
-  <si>
-    <t>2098,08</t>
-  </si>
-  <si>
-    <t>15745,98</t>
-  </si>
-  <si>
-    <t>2008,20</t>
-  </si>
-  <si>
-    <t>1333,92</t>
-  </si>
-  <si>
-    <t>1182,66</t>
-  </si>
-  <si>
-    <t>833,64</t>
-  </si>
-  <si>
-    <t>1884,90</t>
-  </si>
-  <si>
-    <t>1079,89</t>
-  </si>
-  <si>
-    <t>1633,10</t>
-  </si>
-  <si>
-    <t>2202,00</t>
-  </si>
-  <si>
-    <t>466,02</t>
-  </si>
-  <si>
-    <t>798,00</t>
-  </si>
-  <si>
-    <t>194,95</t>
-  </si>
-  <si>
-    <t>479,36</t>
-  </si>
-  <si>
-    <t>152,88</t>
-  </si>
-  <si>
-    <t>1135,44</t>
-  </si>
-  <si>
-    <t>1377,78</t>
-  </si>
-  <si>
-    <t>177,30</t>
-  </si>
-  <si>
-    <t>3626,64</t>
-  </si>
-  <si>
-    <t>2755,98</t>
-  </si>
-  <si>
-    <t>1698,00</t>
-  </si>
-  <si>
-    <t>7186,62</t>
-  </si>
-  <si>
-    <t>4447,32</t>
-  </si>
-  <si>
-    <t>9019,98</t>
-  </si>
-  <si>
-    <t>9307,44</t>
-  </si>
-  <si>
-    <t>3616,02</t>
-  </si>
-  <si>
-    <t>2770,92</t>
-  </si>
-  <si>
-    <t>5458,68</t>
-  </si>
-  <si>
-    <t>1554,96</t>
-  </si>
-  <si>
-    <t>3095,04</t>
-  </si>
-  <si>
-    <t>365,04</t>
-  </si>
-  <si>
-    <t>7530,96</t>
-  </si>
-  <si>
-    <t>1560,90</t>
-  </si>
-  <si>
-    <t>653,40</t>
-  </si>
-  <si>
-    <t>4326,36</t>
-  </si>
-  <si>
-    <t>65904,00</t>
-  </si>
-  <si>
-    <t>62820,00</t>
-  </si>
-  <si>
-    <t>31132,80</t>
-  </si>
-  <si>
-    <t>39708,00</t>
-  </si>
-  <si>
-    <t>5227,20</t>
-  </si>
-  <si>
-    <t>35320,80</t>
-  </si>
-  <si>
-    <t>1693,92</t>
-  </si>
-  <si>
-    <t>792,24</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>307,20</t>
-  </si>
-  <si>
-    <t>268,80</t>
-  </si>
-  <si>
-    <t>504,00</t>
-  </si>
-  <si>
-    <t>852,00</t>
-  </si>
-  <si>
-    <t>714,00</t>
-  </si>
-  <si>
-    <t>678,00</t>
-  </si>
-  <si>
-    <t>546,00</t>
-  </si>
-  <si>
-    <t>161,88</t>
-  </si>
-  <si>
-    <t>260,10</t>
-  </si>
-  <si>
-    <t>207,00</t>
-  </si>
-  <si>
-    <t>422,64</t>
-  </si>
-  <si>
-    <t>349,92</t>
-  </si>
-  <si>
-    <t>205,32</t>
-  </si>
-  <si>
-    <t>175,44</t>
-  </si>
-  <si>
-    <t>117,24</t>
-  </si>
-  <si>
-    <t>124,20</t>
-  </si>
-  <si>
-    <t>111,36</t>
-  </si>
-  <si>
-    <t>160,32</t>
-  </si>
-  <si>
-    <t>179,52</t>
-  </si>
-  <si>
-    <t>158,64</t>
-  </si>
-  <si>
-    <t>124,80</t>
-  </si>
-  <si>
-    <t>127,80</t>
-  </si>
-  <si>
-    <t>2257,80</t>
-  </si>
-  <si>
-    <t>252,24</t>
-  </si>
-  <si>
-    <t>180,48</t>
-  </si>
-  <si>
-    <t>676,80</t>
-  </si>
-  <si>
-    <t>872,40</t>
-  </si>
-  <si>
-    <t>529,80</t>
-  </si>
-  <si>
-    <t>926,10</t>
-  </si>
-  <si>
-    <t>1030,02</t>
-  </si>
-  <si>
-    <t>1600,02</t>
-  </si>
-  <si>
-    <t>610,02</t>
-  </si>
-  <si>
-    <t>739,98</t>
-  </si>
-  <si>
-    <t>1020,00</t>
-  </si>
-  <si>
-    <t>1669,98</t>
-  </si>
-  <si>
-    <t>258,60</t>
-  </si>
-  <si>
-    <t>357,96</t>
-  </si>
-  <si>
-    <t>294,66</t>
-  </si>
-  <si>
-    <t>347,22</t>
-  </si>
-  <si>
-    <t>696,24</t>
-  </si>
-  <si>
-    <t>283,56</t>
-  </si>
-  <si>
-    <t>224,40</t>
-  </si>
-  <si>
-    <t>58,80</t>
-  </si>
-  <si>
-    <t>304,80</t>
-  </si>
-  <si>
-    <t>361,80</t>
-  </si>
-  <si>
-    <t>2053,20</t>
-  </si>
-  <si>
-    <t>2451,00</t>
-  </si>
-  <si>
-    <t>2815,80</t>
-  </si>
-  <si>
-    <t>33795,96</t>
-  </si>
-  <si>
-    <t>105,12</t>
-  </si>
-  <si>
-    <t>10704,00</t>
-  </si>
-  <si>
-    <t>8028,00</t>
-  </si>
-  <si>
-    <t>14208,00</t>
-  </si>
-  <si>
-    <t>17328,00</t>
-  </si>
-  <si>
-    <t>12996,00</t>
-  </si>
-  <si>
-    <t>22224,00</t>
-  </si>
-  <si>
-    <t>16668,00</t>
-  </si>
-  <si>
-    <t>3912,00</t>
-  </si>
-  <si>
-    <t>1928,88</t>
-  </si>
-  <si>
-    <t>2427,84</t>
-  </si>
-  <si>
-    <t>3011,76</t>
-  </si>
-  <si>
-    <t>4155,84</t>
-  </si>
-  <si>
-    <t>4427,28</t>
-  </si>
-  <si>
-    <t>4567,68</t>
-  </si>
-  <si>
-    <t>721,44</t>
-  </si>
-  <si>
-    <t>1401,60</t>
-  </si>
-  <si>
-    <t>2271,36</t>
-  </si>
-  <si>
-    <t>2553,60</t>
-  </si>
-  <si>
-    <t>2478,24</t>
-  </si>
-  <si>
-    <t>907,92</t>
-  </si>
-  <si>
-    <t>2537,28</t>
-  </si>
-  <si>
-    <t>4115,52</t>
-  </si>
-  <si>
-    <t>4590,72</t>
-  </si>
-  <si>
-    <t>4908,96</t>
-  </si>
-  <si>
-    <t>6782,40</t>
-  </si>
-  <si>
-    <t>69215,04</t>
-  </si>
-  <si>
-    <t>17672,04</t>
-  </si>
-  <si>
-    <t>5676,48</t>
-  </si>
-  <si>
-    <t>230,40</t>
-  </si>
-  <si>
-    <t>256,80</t>
-  </si>
-  <si>
-    <t>446,40</t>
-  </si>
-  <si>
-    <t>612,00</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>355,20</t>
-  </si>
-  <si>
-    <t>278,40</t>
-  </si>
-  <si>
-    <t>264,00</t>
-  </si>
-  <si>
-    <t>187,20</t>
-  </si>
-  <si>
-    <t>542,40</t>
-  </si>
-  <si>
-    <t>643,20</t>
-  </si>
-  <si>
-    <t>796,80</t>
-  </si>
-  <si>
-    <t>636,48</t>
-  </si>
-  <si>
-    <t>1171,44</t>
-  </si>
-  <si>
-    <t>1582,56</t>
-  </si>
-  <si>
-    <t>129,96</t>
-  </si>
-  <si>
-    <t>126,72</t>
-  </si>
-  <si>
-    <t>118,44</t>
-  </si>
-  <si>
-    <t>253,80</t>
-  </si>
-  <si>
-    <t>268,20</t>
-  </si>
-  <si>
-    <t>242,28</t>
-  </si>
-  <si>
-    <t>2724,00</t>
-  </si>
-  <si>
-    <t>9474,00</t>
-  </si>
-  <si>
-    <t>5155,20</t>
-  </si>
-  <si>
-    <t>5432,40</t>
-  </si>
-  <si>
-    <t>6415,20</t>
-  </si>
-  <si>
-    <t>1840,80</t>
-  </si>
-  <si>
-    <t>2013,60</t>
-  </si>
-  <si>
-    <t>3271,20</t>
-  </si>
-  <si>
-    <t>8197,92</t>
-  </si>
-  <si>
-    <t>8050,68</t>
-  </si>
-  <si>
-    <t>6237,36</t>
-  </si>
-  <si>
-    <t>9794,40</t>
-  </si>
-  <si>
-    <t>892,20</t>
-  </si>
-  <si>
-    <t>759,00</t>
-  </si>
-  <si>
-    <t>911,52</t>
-  </si>
-  <si>
-    <t>533,40</t>
-  </si>
-  <si>
-    <t>814,80</t>
-  </si>
-  <si>
-    <t>20940,00</t>
+    <t>PISTOLA PARA SILICONE, Tubular profissional reforçada, aplicador Profissional Tubo Reforçado Silicone Rejunte 23cm possui altura total de 142mm. Com largura total de 54mm e comprimento total de 295mm. Tipo: Pistola para silicone tubular profissional reforçada, projetada para uso intensivo e durabilidade. Aplicação: Ideal para aplicação de silicone e rejunte em diversas superfícies, proporcionando um acabamento preciso e eficiente. Estrutura: Fabricada com tubo reforçado, garantindo resistência e</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -2510,20 +1454,20 @@
       <c r="D2">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2" t="s">
-        <v>510</v>
+      <c r="E2">
+        <v>230.3</v>
+      </c>
+      <c r="F2">
+        <v>2763.6</v>
       </c>
       <c r="G2" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H2" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I2" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2539,20 +1483,20 @@
       <c r="D3">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" t="s">
-        <v>511</v>
+      <c r="E3">
+        <v>42.94</v>
+      </c>
+      <c r="F3">
+        <v>515.28</v>
       </c>
       <c r="G3" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H3" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I3" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2568,20 +1512,20 @@
       <c r="D4">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" t="s">
-        <v>512</v>
+      <c r="E4">
+        <v>41.86</v>
+      </c>
+      <c r="F4">
+        <v>502.32</v>
       </c>
       <c r="G4" t="s">
-        <v>689</v>
+        <v>337</v>
       </c>
       <c r="H4" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I4" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2597,20 +1541,20 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" t="s">
-        <v>513</v>
+      <c r="E5">
+        <v>51.38</v>
+      </c>
+      <c r="F5">
+        <v>308.28</v>
       </c>
       <c r="G5" t="s">
-        <v>689</v>
+        <v>337</v>
       </c>
       <c r="H5" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I5" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2626,20 +1570,20 @@
       <c r="D6">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F6" t="s">
-        <v>514</v>
+      <c r="E6">
+        <v>14.44</v>
+      </c>
+      <c r="F6">
+        <v>158.84</v>
       </c>
       <c r="G6" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H6" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I6" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2655,20 +1599,20 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F7" t="s">
-        <v>515</v>
+      <c r="E7">
+        <v>719.62</v>
+      </c>
+      <c r="F7">
+        <v>4317.72</v>
       </c>
       <c r="G7" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H7" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I7" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2684,20 +1628,20 @@
       <c r="D8">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F8" t="s">
-        <v>516</v>
+      <c r="E8">
+        <v>362.87</v>
+      </c>
+      <c r="F8">
+        <v>2902.96</v>
       </c>
       <c r="G8" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H8" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I8" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2713,20 +1657,20 @@
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F9" t="s">
-        <v>517</v>
+      <c r="E9">
+        <v>347.97</v>
+      </c>
+      <c r="F9">
+        <v>2783.76</v>
       </c>
       <c r="G9" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H9" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I9" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2742,20 +1686,20 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
-        <v>345</v>
-      </c>
-      <c r="F10" t="s">
-        <v>518</v>
+      <c r="E10">
+        <v>361.33</v>
+      </c>
+      <c r="F10">
+        <v>2167.98</v>
       </c>
       <c r="G10" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H10" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I10" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2771,20 +1715,20 @@
       <c r="D11">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>346</v>
-      </c>
-      <c r="F11" t="s">
-        <v>519</v>
+      <c r="E11">
+        <v>638.66</v>
+      </c>
+      <c r="F11">
+        <v>7663.92</v>
       </c>
       <c r="G11" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H11" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I11" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2800,20 +1744,20 @@
       <c r="D12">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
-        <v>347</v>
-      </c>
-      <c r="F12" t="s">
-        <v>520</v>
+      <c r="E12">
+        <v>194.18</v>
+      </c>
+      <c r="F12">
+        <v>2330.16</v>
       </c>
       <c r="G12" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H12" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I12" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2829,20 +1773,20 @@
       <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
-        <v>348</v>
-      </c>
-      <c r="F13" t="s">
-        <v>521</v>
+      <c r="E13">
+        <v>175.93</v>
+      </c>
+      <c r="F13">
+        <v>1407.44</v>
       </c>
       <c r="G13" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H13" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I13" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2858,20 +1802,20 @@
       <c r="D14">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F14" t="s">
-        <v>522</v>
+      <c r="E14">
+        <v>10.63</v>
+      </c>
+      <c r="F14">
+        <v>255.12</v>
       </c>
       <c r="G14" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H14" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I14" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2887,20 +1831,20 @@
       <c r="D15">
         <v>120</v>
       </c>
-      <c r="E15" t="s">
-        <v>350</v>
-      </c>
-      <c r="F15" t="s">
-        <v>523</v>
+      <c r="E15">
+        <v>101.46</v>
+      </c>
+      <c r="F15">
+        <v>12175.2</v>
       </c>
       <c r="G15" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H15" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I15" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2916,20 +1860,20 @@
       <c r="D16">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
-        <v>351</v>
-      </c>
-      <c r="F16" t="s">
-        <v>524</v>
+      <c r="E16">
+        <v>100.46</v>
+      </c>
+      <c r="F16">
+        <v>2210.12</v>
       </c>
       <c r="G16" t="s">
-        <v>689</v>
+        <v>337</v>
       </c>
       <c r="H16" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I16" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2945,20 +1889,20 @@
       <c r="D17">
         <v>24</v>
       </c>
-      <c r="E17" t="s">
-        <v>352</v>
-      </c>
-      <c r="F17" t="s">
-        <v>525</v>
+      <c r="E17">
+        <v>24.2</v>
+      </c>
+      <c r="F17">
+        <v>580.8</v>
       </c>
       <c r="G17" t="s">
-        <v>690</v>
+        <v>338</v>
       </c>
       <c r="H17" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I17" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2974,20 +1918,20 @@
       <c r="D18">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
-        <v>353</v>
-      </c>
-      <c r="F18" t="s">
-        <v>526</v>
+      <c r="E18">
+        <v>39.49</v>
+      </c>
+      <c r="F18">
+        <v>473.88</v>
       </c>
       <c r="G18" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H18" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I18" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3003,20 +1947,20 @@
       <c r="D19">
         <v>24</v>
       </c>
-      <c r="E19" t="s">
-        <v>354</v>
-      </c>
-      <c r="F19" t="s">
-        <v>527</v>
+      <c r="E19">
+        <v>87.42</v>
+      </c>
+      <c r="F19">
+        <v>2098.08</v>
       </c>
       <c r="G19" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H19" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I19" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3032,20 +1976,20 @@
       <c r="D20">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
-        <v>355</v>
-      </c>
-      <c r="F20" t="s">
-        <v>528</v>
+      <c r="E20">
+        <v>2624.33</v>
+      </c>
+      <c r="F20">
+        <v>15745.98</v>
       </c>
       <c r="G20" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H20" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I20" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3061,20 +2005,20 @@
       <c r="D21">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
-        <v>356</v>
-      </c>
-      <c r="F21" t="s">
-        <v>529</v>
+      <c r="E21">
+        <v>167.35</v>
+      </c>
+      <c r="F21">
+        <v>2008.2</v>
       </c>
       <c r="G21" t="s">
-        <v>691</v>
+        <v>339</v>
       </c>
       <c r="H21" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I21" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3090,20 +2034,20 @@
       <c r="D22">
         <v>6</v>
       </c>
-      <c r="E22" t="s">
-        <v>357</v>
-      </c>
-      <c r="F22" t="s">
-        <v>530</v>
+      <c r="E22">
+        <v>222.32</v>
+      </c>
+      <c r="F22">
+        <v>1333.92</v>
       </c>
       <c r="G22" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H22" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I22" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3119,20 +2063,20 @@
       <c r="D23">
         <v>6</v>
       </c>
-      <c r="E23" t="s">
-        <v>358</v>
-      </c>
-      <c r="F23" t="s">
-        <v>531</v>
+      <c r="E23">
+        <v>197.11</v>
+      </c>
+      <c r="F23">
+        <v>1182.66</v>
       </c>
       <c r="G23" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H23" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I23" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3148,20 +2092,20 @@
       <c r="D24">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
-        <v>359</v>
-      </c>
-      <c r="F24" t="s">
-        <v>532</v>
+      <c r="E24">
+        <v>69.47</v>
+      </c>
+      <c r="F24">
+        <v>833.64</v>
       </c>
       <c r="G24" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H24" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I24" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3177,20 +2121,20 @@
       <c r="D25">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
-        <v>360</v>
-      </c>
-      <c r="F25" t="s">
-        <v>533</v>
+      <c r="E25">
+        <v>314.15</v>
+      </c>
+      <c r="F25">
+        <v>1884.9</v>
       </c>
       <c r="G25" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H25" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I25" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3206,20 +2150,20 @@
       <c r="D26">
         <v>7</v>
       </c>
-      <c r="E26" t="s">
-        <v>361</v>
-      </c>
-      <c r="F26" t="s">
-        <v>534</v>
+      <c r="E26">
+        <v>154.27</v>
+      </c>
+      <c r="F26">
+        <v>1079.89</v>
       </c>
       <c r="G26" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H26" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I26" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3235,20 +2179,20 @@
       <c r="D27">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
-        <v>362</v>
-      </c>
-      <c r="F27" t="s">
-        <v>535</v>
+      <c r="E27">
+        <v>233.3</v>
+      </c>
+      <c r="F27">
+        <v>1633.1</v>
       </c>
       <c r="G27" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H27" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I27" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3264,20 +2208,20 @@
       <c r="D28">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
-        <v>363</v>
-      </c>
-      <c r="F28" t="s">
-        <v>536</v>
+      <c r="E28">
+        <v>367</v>
+      </c>
+      <c r="F28">
+        <v>2202</v>
       </c>
       <c r="G28" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H28" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I28" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3293,20 +2237,20 @@
       <c r="D29">
         <v>6</v>
       </c>
-      <c r="E29" t="s">
-        <v>364</v>
-      </c>
-      <c r="F29" t="s">
-        <v>537</v>
+      <c r="E29">
+        <v>77.67</v>
+      </c>
+      <c r="F29">
+        <v>466.02</v>
       </c>
       <c r="G29" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H29" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I29" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3322,20 +2266,20 @@
       <c r="D30">
         <v>12</v>
       </c>
-      <c r="E30" t="s">
-        <v>365</v>
-      </c>
-      <c r="F30" t="s">
-        <v>538</v>
+      <c r="E30">
+        <v>66.5</v>
+      </c>
+      <c r="F30">
+        <v>798</v>
       </c>
       <c r="G30" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H30" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I30" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3351,20 +2295,20 @@
       <c r="D31">
         <v>7</v>
       </c>
-      <c r="E31" t="s">
-        <v>366</v>
-      </c>
-      <c r="F31" t="s">
-        <v>539</v>
+      <c r="E31">
+        <v>27.85</v>
+      </c>
+      <c r="F31">
+        <v>194.95</v>
       </c>
       <c r="G31" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H31" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I31" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3380,20 +2324,20 @@
       <c r="D32">
         <v>7</v>
       </c>
-      <c r="E32" t="s">
-        <v>367</v>
-      </c>
-      <c r="F32" t="s">
-        <v>540</v>
+      <c r="E32">
+        <v>68.48</v>
+      </c>
+      <c r="F32">
+        <v>479.36</v>
       </c>
       <c r="G32" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H32" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I32" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3403,26 +2347,23 @@
       <c r="B33" t="s">
         <v>219</v>
       </c>
-      <c r="C33" t="s">
-        <v>336</v>
-      </c>
       <c r="D33">
         <v>6</v>
       </c>
-      <c r="E33" t="s">
-        <v>368</v>
-      </c>
-      <c r="F33" t="s">
-        <v>541</v>
+      <c r="E33">
+        <v>25.48</v>
+      </c>
+      <c r="F33">
+        <v>152.88</v>
       </c>
       <c r="G33" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H33" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I33" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3435,20 +2376,20 @@
       <c r="D34">
         <v>6</v>
       </c>
-      <c r="E34" t="s">
-        <v>369</v>
-      </c>
-      <c r="F34" t="s">
-        <v>542</v>
+      <c r="E34">
+        <v>189.24</v>
+      </c>
+      <c r="F34">
+        <v>1135.44</v>
       </c>
       <c r="G34" t="s">
-        <v>691</v>
+        <v>339</v>
       </c>
       <c r="H34" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I34" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3461,20 +2402,20 @@
       <c r="D35">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
-        <v>370</v>
-      </c>
-      <c r="F35" t="s">
-        <v>543</v>
+      <c r="E35">
+        <v>229.63</v>
+      </c>
+      <c r="F35">
+        <v>1377.78</v>
       </c>
       <c r="G35" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H35" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I35" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3487,20 +2428,20 @@
       <c r="D36">
         <v>6</v>
       </c>
-      <c r="E36" t="s">
-        <v>371</v>
-      </c>
-      <c r="F36" t="s">
-        <v>544</v>
+      <c r="E36">
+        <v>29.55</v>
+      </c>
+      <c r="F36">
+        <v>177.3</v>
       </c>
       <c r="G36" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H36" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I36" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3513,20 +2454,20 @@
       <c r="D37">
         <v>6</v>
       </c>
-      <c r="E37" t="s">
-        <v>372</v>
-      </c>
-      <c r="F37" t="s">
-        <v>545</v>
+      <c r="E37">
+        <v>604.4400000000001</v>
+      </c>
+      <c r="F37">
+        <v>3626.64</v>
       </c>
       <c r="G37" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H37" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I37" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3539,20 +2480,20 @@
       <c r="D38">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
-        <v>373</v>
-      </c>
-      <c r="F38" t="s">
-        <v>546</v>
+      <c r="E38">
+        <v>459.33</v>
+      </c>
+      <c r="F38">
+        <v>2755.98</v>
       </c>
       <c r="G38" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H38" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I38" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3565,20 +2506,20 @@
       <c r="D39">
         <v>6</v>
       </c>
-      <c r="E39" t="s">
-        <v>374</v>
-      </c>
-      <c r="F39" t="s">
-        <v>547</v>
+      <c r="E39">
+        <v>283</v>
+      </c>
+      <c r="F39">
+        <v>1698</v>
       </c>
       <c r="G39" t="s">
-        <v>691</v>
+        <v>339</v>
       </c>
       <c r="H39" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I39" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3591,20 +2532,20 @@
       <c r="D40">
         <v>14</v>
       </c>
-      <c r="E40" t="s">
-        <v>375</v>
-      </c>
-      <c r="F40" t="s">
-        <v>548</v>
+      <c r="E40">
+        <v>513.33</v>
+      </c>
+      <c r="F40">
+        <v>7186.620000000001</v>
       </c>
       <c r="G40" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H40" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I40" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3617,20 +2558,20 @@
       <c r="D41">
         <v>6</v>
       </c>
-      <c r="E41" t="s">
-        <v>376</v>
-      </c>
-      <c r="F41" t="s">
-        <v>549</v>
+      <c r="E41">
+        <v>741.22</v>
+      </c>
+      <c r="F41">
+        <v>4447.32</v>
       </c>
       <c r="G41" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H41" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I41" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3643,20 +2584,20 @@
       <c r="D42">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
-        <v>377</v>
-      </c>
-      <c r="F42" t="s">
-        <v>550</v>
+      <c r="E42">
+        <v>1503.33</v>
+      </c>
+      <c r="F42">
+        <v>9019.98</v>
       </c>
       <c r="G42" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H42" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I42" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3669,20 +2610,20 @@
       <c r="D43">
         <v>6</v>
       </c>
-      <c r="E43" t="s">
-        <v>378</v>
-      </c>
-      <c r="F43" t="s">
-        <v>551</v>
+      <c r="E43">
+        <v>1551.24</v>
+      </c>
+      <c r="F43">
+        <v>9307.440000000001</v>
       </c>
       <c r="G43" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H43" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I43" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3695,20 +2636,20 @@
       <c r="D44">
         <v>6</v>
       </c>
-      <c r="E44" t="s">
-        <v>379</v>
-      </c>
-      <c r="F44" t="s">
-        <v>552</v>
+      <c r="E44">
+        <v>602.67</v>
+      </c>
+      <c r="F44">
+        <v>3616.02</v>
       </c>
       <c r="G44" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H44" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I44" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3721,20 +2662,20 @@
       <c r="D45">
         <v>12</v>
       </c>
-      <c r="E45" t="s">
-        <v>380</v>
-      </c>
-      <c r="F45" t="s">
-        <v>553</v>
+      <c r="E45">
+        <v>230.91</v>
+      </c>
+      <c r="F45">
+        <v>2770.92</v>
       </c>
       <c r="G45" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H45" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I45" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3747,20 +2688,20 @@
       <c r="D46">
         <v>12</v>
       </c>
-      <c r="E46" t="s">
-        <v>381</v>
-      </c>
-      <c r="F46" t="s">
-        <v>554</v>
+      <c r="E46">
+        <v>454.89</v>
+      </c>
+      <c r="F46">
+        <v>5458.68</v>
       </c>
       <c r="G46" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H46" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I46" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3773,20 +2714,20 @@
       <c r="D47">
         <v>12</v>
       </c>
-      <c r="E47" t="s">
-        <v>382</v>
-      </c>
-      <c r="F47" t="s">
-        <v>555</v>
+      <c r="E47">
+        <v>129.58</v>
+      </c>
+      <c r="F47">
+        <v>1554.96</v>
       </c>
       <c r="G47" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H47" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I47" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3799,20 +2740,20 @@
       <c r="D48">
         <v>12</v>
       </c>
-      <c r="E48" t="s">
-        <v>383</v>
-      </c>
-      <c r="F48" t="s">
-        <v>556</v>
+      <c r="E48">
+        <v>257.92</v>
+      </c>
+      <c r="F48">
+        <v>3095.04</v>
       </c>
       <c r="G48" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H48" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I48" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3825,20 +2766,20 @@
       <c r="D49">
         <v>6</v>
       </c>
-      <c r="E49" t="s">
-        <v>384</v>
-      </c>
-      <c r="F49" t="s">
-        <v>557</v>
+      <c r="E49">
+        <v>60.84</v>
+      </c>
+      <c r="F49">
+        <v>365.04</v>
       </c>
       <c r="G49" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H49" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I49" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3851,20 +2792,20 @@
       <c r="D50">
         <v>12</v>
       </c>
-      <c r="E50" t="s">
-        <v>385</v>
-      </c>
-      <c r="F50" t="s">
-        <v>558</v>
+      <c r="E50">
+        <v>627.58</v>
+      </c>
+      <c r="F50">
+        <v>7530.960000000001</v>
       </c>
       <c r="G50" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H50" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I50" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3877,20 +2818,20 @@
       <c r="D51">
         <v>43</v>
       </c>
-      <c r="E51" t="s">
-        <v>386</v>
-      </c>
-      <c r="F51" t="s">
-        <v>559</v>
+      <c r="E51">
+        <v>36.3</v>
+      </c>
+      <c r="F51">
+        <v>1560.9</v>
       </c>
       <c r="G51" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H51" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I51" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3903,20 +2844,20 @@
       <c r="D52">
         <v>12</v>
       </c>
-      <c r="E52" t="s">
-        <v>387</v>
-      </c>
-      <c r="F52" t="s">
-        <v>560</v>
+      <c r="E52">
+        <v>54.45</v>
+      </c>
+      <c r="F52">
+        <v>653.4000000000001</v>
       </c>
       <c r="G52" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H52" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I52" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3929,20 +2870,20 @@
       <c r="D53">
         <v>12</v>
       </c>
-      <c r="E53" t="s">
-        <v>388</v>
-      </c>
-      <c r="F53" t="s">
-        <v>561</v>
+      <c r="E53">
+        <v>360.53</v>
+      </c>
+      <c r="F53">
+        <v>4326.36</v>
       </c>
       <c r="G53" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H53" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I53" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3955,20 +2896,20 @@
       <c r="D54">
         <v>2400</v>
       </c>
-      <c r="E54" t="s">
-        <v>389</v>
-      </c>
-      <c r="F54" t="s">
-        <v>562</v>
+      <c r="E54">
+        <v>27.46</v>
+      </c>
+      <c r="F54">
+        <v>65904</v>
       </c>
       <c r="G54" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H54" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I54" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3981,20 +2922,20 @@
       <c r="D55">
         <v>1800</v>
       </c>
-      <c r="E55" t="s">
-        <v>390</v>
-      </c>
-      <c r="F55" t="s">
-        <v>563</v>
+      <c r="E55">
+        <v>34.9</v>
+      </c>
+      <c r="F55">
+        <v>62820</v>
       </c>
       <c r="G55" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H55" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I55" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4007,20 +2948,20 @@
       <c r="D56">
         <v>360</v>
       </c>
-      <c r="E56" t="s">
-        <v>391</v>
-      </c>
-      <c r="F56" t="s">
-        <v>564</v>
+      <c r="E56">
+        <v>86.48</v>
+      </c>
+      <c r="F56">
+        <v>31132.8</v>
       </c>
       <c r="G56" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H56" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I56" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4033,20 +2974,20 @@
       <c r="D57">
         <v>360</v>
       </c>
-      <c r="E57" t="s">
-        <v>392</v>
-      </c>
-      <c r="F57" t="s">
-        <v>565</v>
+      <c r="E57">
+        <v>110.3</v>
+      </c>
+      <c r="F57">
+        <v>39708</v>
       </c>
       <c r="G57" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H57" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I57" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4059,20 +3000,20 @@
       <c r="D58">
         <v>120</v>
       </c>
-      <c r="E58" t="s">
-        <v>393</v>
-      </c>
-      <c r="F58" t="s">
-        <v>566</v>
+      <c r="E58">
+        <v>43.56</v>
+      </c>
+      <c r="F58">
+        <v>5227.200000000001</v>
       </c>
       <c r="G58" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H58" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I58" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4085,20 +3026,20 @@
       <c r="D59">
         <v>240</v>
       </c>
-      <c r="E59" t="s">
-        <v>394</v>
-      </c>
-      <c r="F59" t="s">
-        <v>567</v>
+      <c r="E59">
+        <v>147.17</v>
+      </c>
+      <c r="F59">
+        <v>35320.8</v>
       </c>
       <c r="G59" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H59" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I59" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4111,20 +3052,20 @@
       <c r="D60">
         <v>12</v>
       </c>
-      <c r="E60" t="s">
-        <v>395</v>
-      </c>
-      <c r="F60" t="s">
-        <v>568</v>
+      <c r="E60">
+        <v>141.16</v>
+      </c>
+      <c r="F60">
+        <v>1693.92</v>
       </c>
       <c r="G60" t="s">
-        <v>692</v>
+        <v>340</v>
       </c>
       <c r="H60" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I60" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4137,20 +3078,20 @@
       <c r="D61">
         <v>12</v>
       </c>
-      <c r="E61" t="s">
-        <v>396</v>
-      </c>
-      <c r="F61" t="s">
-        <v>569</v>
+      <c r="E61">
+        <v>66.02</v>
+      </c>
+      <c r="F61">
+        <v>792.24</v>
       </c>
       <c r="G61" t="s">
-        <v>692</v>
+        <v>340</v>
       </c>
       <c r="H61" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I61" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4163,20 +3104,20 @@
       <c r="D62">
         <v>240</v>
       </c>
-      <c r="E62" t="s">
-        <v>397</v>
-      </c>
-      <c r="F62" t="s">
-        <v>570</v>
+      <c r="E62">
+        <v>1.6</v>
+      </c>
+      <c r="F62">
+        <v>384</v>
       </c>
       <c r="G62" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H62" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I62" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4189,20 +3130,20 @@
       <c r="D63">
         <v>240</v>
       </c>
-      <c r="E63" t="s">
-        <v>398</v>
-      </c>
-      <c r="F63" t="s">
-        <v>571</v>
+      <c r="E63">
+        <v>1.28</v>
+      </c>
+      <c r="F63">
+        <v>307.2</v>
       </c>
       <c r="G63" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H63" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I63" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4215,20 +3156,20 @@
       <c r="D64">
         <v>240</v>
       </c>
-      <c r="E64" t="s">
-        <v>399</v>
-      </c>
-      <c r="F64" t="s">
-        <v>572</v>
+      <c r="E64">
+        <v>1.12</v>
+      </c>
+      <c r="F64">
+        <v>268.8</v>
       </c>
       <c r="G64" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H64" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I64" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4241,20 +3182,20 @@
       <c r="D65">
         <v>480</v>
       </c>
-      <c r="E65" t="s">
-        <v>400</v>
-      </c>
-      <c r="F65" t="s">
-        <v>573</v>
+      <c r="E65">
+        <v>1.05</v>
+      </c>
+      <c r="F65">
+        <v>504</v>
       </c>
       <c r="G65" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H65" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I65" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4267,20 +3208,20 @@
       <c r="D66">
         <v>600</v>
       </c>
-      <c r="E66" t="s">
-        <v>401</v>
-      </c>
-      <c r="F66" t="s">
-        <v>574</v>
+      <c r="E66">
+        <v>1.42</v>
+      </c>
+      <c r="F66">
+        <v>852</v>
       </c>
       <c r="G66" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H66" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I66" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4293,20 +3234,20 @@
       <c r="D67">
         <v>600</v>
       </c>
-      <c r="E67" t="s">
-        <v>402</v>
-      </c>
-      <c r="F67" t="s">
-        <v>575</v>
+      <c r="E67">
+        <v>1.19</v>
+      </c>
+      <c r="F67">
+        <v>714</v>
       </c>
       <c r="G67" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H67" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I67" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4319,20 +3260,20 @@
       <c r="D68">
         <v>600</v>
       </c>
-      <c r="E68" t="s">
-        <v>403</v>
-      </c>
-      <c r="F68" t="s">
-        <v>576</v>
+      <c r="E68">
+        <v>1.13</v>
+      </c>
+      <c r="F68">
+        <v>677.9999999999999</v>
       </c>
       <c r="G68" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H68" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I68" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4345,20 +3286,20 @@
       <c r="D69">
         <v>600</v>
       </c>
-      <c r="E69" t="s">
-        <v>404</v>
-      </c>
-      <c r="F69" t="s">
-        <v>577</v>
+      <c r="E69">
+        <v>0.91</v>
+      </c>
+      <c r="F69">
+        <v>546</v>
       </c>
       <c r="G69" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H69" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I69" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4371,20 +3312,20 @@
       <c r="D70">
         <v>12</v>
       </c>
-      <c r="E70" t="s">
-        <v>405</v>
-      </c>
-      <c r="F70" t="s">
-        <v>578</v>
+      <c r="E70">
+        <v>13.49</v>
+      </c>
+      <c r="F70">
+        <v>161.88</v>
       </c>
       <c r="G70" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H70" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I70" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4397,20 +3338,20 @@
       <c r="D71">
         <v>18</v>
       </c>
-      <c r="E71" t="s">
-        <v>406</v>
-      </c>
-      <c r="F71" t="s">
-        <v>579</v>
+      <c r="E71">
+        <v>14.45</v>
+      </c>
+      <c r="F71">
+        <v>260.1</v>
       </c>
       <c r="G71" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H71" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I71" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4423,20 +3364,20 @@
       <c r="D72">
         <v>18</v>
       </c>
-      <c r="E72" t="s">
-        <v>407</v>
-      </c>
-      <c r="F72" t="s">
-        <v>580</v>
+      <c r="E72">
+        <v>11.5</v>
+      </c>
+      <c r="F72">
+        <v>207</v>
       </c>
       <c r="G72" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H72" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I72" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4449,20 +3390,20 @@
       <c r="D73">
         <v>36</v>
       </c>
-      <c r="E73" t="s">
-        <v>408</v>
-      </c>
-      <c r="F73" t="s">
-        <v>581</v>
+      <c r="E73">
+        <v>11.74</v>
+      </c>
+      <c r="F73">
+        <v>422.64</v>
       </c>
       <c r="G73" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H73" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I73" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4475,20 +3416,20 @@
       <c r="D74">
         <v>36</v>
       </c>
-      <c r="E74" t="s">
-        <v>409</v>
-      </c>
-      <c r="F74" t="s">
-        <v>582</v>
+      <c r="E74">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="F74">
+        <v>349.92</v>
       </c>
       <c r="G74" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H74" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I74" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4501,20 +3442,20 @@
       <c r="D75">
         <v>12</v>
       </c>
-      <c r="E75" t="s">
-        <v>410</v>
-      </c>
-      <c r="F75" t="s">
-        <v>583</v>
+      <c r="E75">
+        <v>17.11</v>
+      </c>
+      <c r="F75">
+        <v>205.32</v>
       </c>
       <c r="G75" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H75" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I75" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4527,20 +3468,20 @@
       <c r="D76">
         <v>12</v>
       </c>
-      <c r="E76" t="s">
-        <v>411</v>
-      </c>
-      <c r="F76" t="s">
-        <v>584</v>
+      <c r="E76">
+        <v>14.62</v>
+      </c>
+      <c r="F76">
+        <v>175.44</v>
       </c>
       <c r="G76" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H76" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I76" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4553,20 +3494,20 @@
       <c r="D77">
         <v>12</v>
       </c>
-      <c r="E77" t="s">
-        <v>412</v>
-      </c>
-      <c r="F77" t="s">
-        <v>585</v>
+      <c r="E77">
+        <v>9.77</v>
+      </c>
+      <c r="F77">
+        <v>117.24</v>
       </c>
       <c r="G77" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H77" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I77" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4579,20 +3520,20 @@
       <c r="D78">
         <v>12</v>
       </c>
-      <c r="E78" t="s">
-        <v>413</v>
-      </c>
-      <c r="F78" t="s">
-        <v>586</v>
+      <c r="E78">
+        <v>10.35</v>
+      </c>
+      <c r="F78">
+        <v>124.2</v>
       </c>
       <c r="G78" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H78" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I78" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4605,20 +3546,20 @@
       <c r="D79">
         <v>12</v>
       </c>
-      <c r="E79" t="s">
-        <v>414</v>
-      </c>
-      <c r="F79" t="s">
-        <v>587</v>
+      <c r="E79">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="F79">
+        <v>111.36</v>
       </c>
       <c r="G79" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H79" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I79" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4631,20 +3572,20 @@
       <c r="D80">
         <v>12</v>
       </c>
-      <c r="E80" t="s">
-        <v>415</v>
-      </c>
-      <c r="F80" t="s">
-        <v>588</v>
+      <c r="E80">
+        <v>13.36</v>
+      </c>
+      <c r="F80">
+        <v>160.32</v>
       </c>
       <c r="G80" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H80" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I80" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4657,20 +3598,20 @@
       <c r="D81">
         <v>12</v>
       </c>
-      <c r="E81" t="s">
-        <v>416</v>
-      </c>
-      <c r="F81" t="s">
-        <v>589</v>
+      <c r="E81">
+        <v>14.96</v>
+      </c>
+      <c r="F81">
+        <v>179.52</v>
       </c>
       <c r="G81" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H81" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I81" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4683,20 +3624,20 @@
       <c r="D82">
         <v>12</v>
       </c>
-      <c r="E82" t="s">
-        <v>417</v>
-      </c>
-      <c r="F82" t="s">
-        <v>590</v>
+      <c r="E82">
+        <v>13.22</v>
+      </c>
+      <c r="F82">
+        <v>158.64</v>
       </c>
       <c r="G82" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H82" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I82" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4709,20 +3650,20 @@
       <c r="D83">
         <v>12</v>
       </c>
-      <c r="E83" t="s">
-        <v>418</v>
-      </c>
-      <c r="F83" t="s">
-        <v>591</v>
+      <c r="E83">
+        <v>10.4</v>
+      </c>
+      <c r="F83">
+        <v>124.8</v>
       </c>
       <c r="G83" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H83" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I83" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4735,20 +3676,20 @@
       <c r="D84">
         <v>12</v>
       </c>
-      <c r="E84" t="s">
-        <v>419</v>
-      </c>
-      <c r="F84" t="s">
-        <v>592</v>
+      <c r="E84">
+        <v>10.65</v>
+      </c>
+      <c r="F84">
+        <v>127.8</v>
       </c>
       <c r="G84" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H84" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I84" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4761,20 +3702,20 @@
       <c r="D85">
         <v>60</v>
       </c>
-      <c r="E85" t="s">
-        <v>420</v>
-      </c>
-      <c r="F85" t="s">
-        <v>593</v>
+      <c r="E85">
+        <v>37.63</v>
+      </c>
+      <c r="F85">
+        <v>2257.8</v>
       </c>
       <c r="G85" t="s">
-        <v>692</v>
+        <v>340</v>
       </c>
       <c r="H85" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I85" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4787,20 +3728,20 @@
       <c r="D86">
         <v>12</v>
       </c>
-      <c r="E86" t="s">
-        <v>421</v>
-      </c>
-      <c r="F86" t="s">
-        <v>594</v>
+      <c r="E86">
+        <v>21.02</v>
+      </c>
+      <c r="F86">
+        <v>252.24</v>
       </c>
       <c r="G86" t="s">
-        <v>692</v>
+        <v>340</v>
       </c>
       <c r="H86" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I86" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4813,20 +3754,20 @@
       <c r="D87">
         <v>12</v>
       </c>
-      <c r="E87" t="s">
-        <v>422</v>
-      </c>
-      <c r="F87" t="s">
-        <v>595</v>
+      <c r="E87">
+        <v>15.04</v>
+      </c>
+      <c r="F87">
+        <v>180.48</v>
       </c>
       <c r="G87" t="s">
-        <v>692</v>
+        <v>340</v>
       </c>
       <c r="H87" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I87" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4839,20 +3780,20 @@
       <c r="D88">
         <v>24</v>
       </c>
-      <c r="E88" t="s">
-        <v>423</v>
-      </c>
-      <c r="F88" t="s">
-        <v>596</v>
+      <c r="E88">
+        <v>28.2</v>
+      </c>
+      <c r="F88">
+        <v>676.8</v>
       </c>
       <c r="G88" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H88" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I88" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4865,20 +3806,20 @@
       <c r="D89">
         <v>60</v>
       </c>
-      <c r="E89" t="s">
-        <v>424</v>
-      </c>
-      <c r="F89" t="s">
-        <v>597</v>
+      <c r="E89">
+        <v>14.54</v>
+      </c>
+      <c r="F89">
+        <v>872.4</v>
       </c>
       <c r="G89" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H89" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I89" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4891,20 +3832,20 @@
       <c r="D90">
         <v>6</v>
       </c>
-      <c r="E90" t="s">
-        <v>425</v>
-      </c>
-      <c r="F90" t="s">
-        <v>598</v>
+      <c r="E90">
+        <v>88.3</v>
+      </c>
+      <c r="F90">
+        <v>529.8</v>
       </c>
       <c r="G90" t="s">
-        <v>693</v>
+        <v>341</v>
       </c>
       <c r="H90" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I90" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4917,20 +3858,20 @@
       <c r="D91">
         <v>6</v>
       </c>
-      <c r="E91" t="s">
-        <v>426</v>
-      </c>
-      <c r="F91" t="s">
-        <v>599</v>
+      <c r="E91">
+        <v>154.35</v>
+      </c>
+      <c r="F91">
+        <v>926.0999999999999</v>
       </c>
       <c r="G91" t="s">
-        <v>693</v>
+        <v>341</v>
       </c>
       <c r="H91" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I91" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4943,20 +3884,20 @@
       <c r="D92">
         <v>6</v>
       </c>
-      <c r="E92" t="s">
-        <v>427</v>
-      </c>
-      <c r="F92" t="s">
-        <v>600</v>
+      <c r="E92">
+        <v>171.67</v>
+      </c>
+      <c r="F92">
+        <v>1030.02</v>
       </c>
       <c r="G92" t="s">
-        <v>693</v>
+        <v>341</v>
       </c>
       <c r="H92" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I92" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4969,20 +3910,20 @@
       <c r="D93">
         <v>6</v>
       </c>
-      <c r="E93" t="s">
-        <v>428</v>
-      </c>
-      <c r="F93" t="s">
-        <v>601</v>
+      <c r="E93">
+        <v>266.67</v>
+      </c>
+      <c r="F93">
+        <v>1600.02</v>
       </c>
       <c r="G93" t="s">
-        <v>693</v>
+        <v>341</v>
       </c>
       <c r="H93" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I93" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4995,20 +3936,20 @@
       <c r="D94">
         <v>6</v>
       </c>
-      <c r="E94" t="s">
-        <v>429</v>
-      </c>
-      <c r="F94" t="s">
-        <v>602</v>
+      <c r="E94">
+        <v>101.67</v>
+      </c>
+      <c r="F94">
+        <v>610.02</v>
       </c>
       <c r="G94" t="s">
-        <v>693</v>
+        <v>341</v>
       </c>
       <c r="H94" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I94" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5021,20 +3962,20 @@
       <c r="D95">
         <v>6</v>
       </c>
-      <c r="E95" t="s">
-        <v>430</v>
-      </c>
-      <c r="F95" t="s">
-        <v>603</v>
+      <c r="E95">
+        <v>123.33</v>
+      </c>
+      <c r="F95">
+        <v>739.98</v>
       </c>
       <c r="G95" t="s">
-        <v>693</v>
+        <v>341</v>
       </c>
       <c r="H95" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I95" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5047,20 +3988,20 @@
       <c r="D96">
         <v>6</v>
       </c>
-      <c r="E96" t="s">
-        <v>431</v>
-      </c>
-      <c r="F96" t="s">
-        <v>604</v>
+      <c r="E96">
+        <v>170</v>
+      </c>
+      <c r="F96">
+        <v>1020</v>
       </c>
       <c r="G96" t="s">
-        <v>693</v>
+        <v>341</v>
       </c>
       <c r="H96" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I96" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5073,20 +4014,20 @@
       <c r="D97">
         <v>6</v>
       </c>
-      <c r="E97" t="s">
-        <v>432</v>
-      </c>
-      <c r="F97" t="s">
-        <v>605</v>
+      <c r="E97">
+        <v>278.33</v>
+      </c>
+      <c r="F97">
+        <v>1669.98</v>
       </c>
       <c r="G97" t="s">
-        <v>693</v>
+        <v>341</v>
       </c>
       <c r="H97" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I97" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5099,20 +4040,20 @@
       <c r="D98">
         <v>6</v>
       </c>
-      <c r="E98" t="s">
-        <v>433</v>
-      </c>
-      <c r="F98" t="s">
-        <v>606</v>
+      <c r="E98">
+        <v>43.1</v>
+      </c>
+      <c r="F98">
+        <v>258.6</v>
       </c>
       <c r="G98" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H98" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I98" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5125,20 +4066,20 @@
       <c r="D99">
         <v>6</v>
       </c>
-      <c r="E99" t="s">
-        <v>434</v>
-      </c>
-      <c r="F99" t="s">
-        <v>607</v>
+      <c r="E99">
+        <v>59.66</v>
+      </c>
+      <c r="F99">
+        <v>357.96</v>
       </c>
       <c r="G99" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H99" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I99" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5151,20 +4092,20 @@
       <c r="D100">
         <v>6</v>
       </c>
-      <c r="E100" t="s">
-        <v>435</v>
-      </c>
-      <c r="F100" t="s">
-        <v>608</v>
+      <c r="E100">
+        <v>49.11</v>
+      </c>
+      <c r="F100">
+        <v>294.66</v>
       </c>
       <c r="G100" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H100" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I100" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5177,20 +4118,20 @@
       <c r="D101">
         <v>6</v>
       </c>
-      <c r="E101" t="s">
-        <v>436</v>
-      </c>
-      <c r="F101" t="s">
-        <v>609</v>
+      <c r="E101">
+        <v>57.87</v>
+      </c>
+      <c r="F101">
+        <v>347.22</v>
       </c>
       <c r="G101" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H101" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I101" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5203,20 +4144,20 @@
       <c r="D102">
         <v>12</v>
       </c>
-      <c r="E102" t="s">
-        <v>437</v>
-      </c>
-      <c r="F102" t="s">
-        <v>610</v>
+      <c r="E102">
+        <v>58.02</v>
+      </c>
+      <c r="F102">
+        <v>696.24</v>
       </c>
       <c r="G102" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H102" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I102" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5229,20 +4170,20 @@
       <c r="D103">
         <v>12</v>
       </c>
-      <c r="E103" t="s">
-        <v>438</v>
-      </c>
-      <c r="F103" t="s">
-        <v>611</v>
+      <c r="E103">
+        <v>23.63</v>
+      </c>
+      <c r="F103">
+        <v>283.56</v>
       </c>
       <c r="G103" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H103" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I103" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5255,20 +4196,20 @@
       <c r="D104">
         <v>12</v>
       </c>
-      <c r="E104" t="s">
-        <v>439</v>
-      </c>
-      <c r="F104" t="s">
-        <v>612</v>
+      <c r="E104">
+        <v>18.7</v>
+      </c>
+      <c r="F104">
+        <v>224.4</v>
       </c>
       <c r="G104" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H104" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I104" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5281,20 +4222,20 @@
       <c r="D105">
         <v>60</v>
       </c>
-      <c r="E105" t="s">
-        <v>440</v>
-      </c>
-      <c r="F105" t="s">
-        <v>613</v>
+      <c r="E105">
+        <v>0.98</v>
+      </c>
+      <c r="F105">
+        <v>58.8</v>
       </c>
       <c r="G105" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H105" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I105" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5307,20 +4248,20 @@
       <c r="D106">
         <v>60</v>
       </c>
-      <c r="E106" t="s">
-        <v>441</v>
-      </c>
-      <c r="F106" t="s">
-        <v>614</v>
+      <c r="E106">
+        <v>5.08</v>
+      </c>
+      <c r="F106">
+        <v>304.8</v>
       </c>
       <c r="G106" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H106" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I106" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5333,20 +4274,20 @@
       <c r="D107">
         <v>60</v>
       </c>
-      <c r="E107" t="s">
-        <v>442</v>
-      </c>
-      <c r="F107" t="s">
-        <v>615</v>
+      <c r="E107">
+        <v>6.03</v>
+      </c>
+      <c r="F107">
+        <v>361.8</v>
       </c>
       <c r="G107" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H107" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I107" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5359,20 +4300,20 @@
       <c r="D108">
         <v>6</v>
       </c>
-      <c r="E108" t="s">
-        <v>443</v>
-      </c>
-      <c r="F108" t="s">
-        <v>616</v>
+      <c r="E108">
+        <v>342.2</v>
+      </c>
+      <c r="F108">
+        <v>2053.2</v>
       </c>
       <c r="G108" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H108" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I108" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5385,20 +4326,20 @@
       <c r="D109">
         <v>60</v>
       </c>
-      <c r="E109" t="s">
-        <v>444</v>
-      </c>
-      <c r="F109" t="s">
-        <v>617</v>
+      <c r="E109">
+        <v>40.85</v>
+      </c>
+      <c r="F109">
+        <v>2451</v>
       </c>
       <c r="G109" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H109" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I109" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5411,20 +4352,20 @@
       <c r="D110">
         <v>60</v>
       </c>
-      <c r="E110" t="s">
-        <v>445</v>
-      </c>
-      <c r="F110" t="s">
-        <v>618</v>
+      <c r="E110">
+        <v>46.93</v>
+      </c>
+      <c r="F110">
+        <v>2815.8</v>
       </c>
       <c r="G110" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H110" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I110" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5437,20 +4378,20 @@
       <c r="D111">
         <v>12</v>
       </c>
-      <c r="E111" t="s">
-        <v>446</v>
-      </c>
-      <c r="F111" t="s">
-        <v>619</v>
+      <c r="E111">
+        <v>2816.33</v>
+      </c>
+      <c r="F111">
+        <v>33795.96</v>
       </c>
       <c r="G111" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H111" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I111" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5463,20 +4404,20 @@
       <c r="D112">
         <v>24</v>
       </c>
-      <c r="E112" t="s">
-        <v>447</v>
-      </c>
-      <c r="F112" t="s">
-        <v>620</v>
+      <c r="E112">
+        <v>4.38</v>
+      </c>
+      <c r="F112">
+        <v>105.12</v>
       </c>
       <c r="G112" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H112" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I112" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5489,20 +4430,20 @@
       <c r="D113">
         <v>4800</v>
       </c>
-      <c r="E113" t="s">
-        <v>448</v>
-      </c>
-      <c r="F113" t="s">
-        <v>621</v>
+      <c r="E113">
+        <v>2.23</v>
+      </c>
+      <c r="F113">
+        <v>10704</v>
       </c>
       <c r="G113" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H113" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I113" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5515,20 +4456,20 @@
       <c r="D114">
         <v>4800</v>
       </c>
-      <c r="E114" t="s">
-        <v>448</v>
-      </c>
-      <c r="F114" t="s">
-        <v>621</v>
+      <c r="E114">
+        <v>2.23</v>
+      </c>
+      <c r="F114">
+        <v>10704</v>
       </c>
       <c r="G114" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H114" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I114" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5541,20 +4482,20 @@
       <c r="D115">
         <v>3600</v>
       </c>
-      <c r="E115" t="s">
-        <v>448</v>
-      </c>
-      <c r="F115" t="s">
-        <v>622</v>
+      <c r="E115">
+        <v>2.23</v>
+      </c>
+      <c r="F115">
+        <v>8028</v>
       </c>
       <c r="G115" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H115" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I115" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5567,20 +4508,20 @@
       <c r="D116">
         <v>4800</v>
       </c>
-      <c r="E116" t="s">
-        <v>448</v>
-      </c>
-      <c r="F116" t="s">
-        <v>621</v>
+      <c r="E116">
+        <v>2.23</v>
+      </c>
+      <c r="F116">
+        <v>10704</v>
       </c>
       <c r="G116" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H116" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I116" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5593,20 +4534,20 @@
       <c r="D117">
         <v>4800</v>
       </c>
-      <c r="E117" t="s">
-        <v>449</v>
-      </c>
-      <c r="F117" t="s">
-        <v>623</v>
+      <c r="E117">
+        <v>2.96</v>
+      </c>
+      <c r="F117">
+        <v>14208</v>
       </c>
       <c r="G117" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H117" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I117" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5619,20 +4560,20 @@
       <c r="D118">
         <v>4800</v>
       </c>
-      <c r="E118" t="s">
-        <v>449</v>
-      </c>
-      <c r="F118" t="s">
-        <v>623</v>
+      <c r="E118">
+        <v>2.96</v>
+      </c>
+      <c r="F118">
+        <v>14208</v>
       </c>
       <c r="G118" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H118" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I118" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5645,20 +4586,20 @@
       <c r="D119">
         <v>4800</v>
       </c>
-      <c r="E119" t="s">
-        <v>449</v>
-      </c>
-      <c r="F119" t="s">
-        <v>623</v>
+      <c r="E119">
+        <v>2.96</v>
+      </c>
+      <c r="F119">
+        <v>14208</v>
       </c>
       <c r="G119" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H119" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I119" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5671,20 +4612,20 @@
       <c r="D120">
         <v>4800</v>
       </c>
-      <c r="E120" t="s">
-        <v>450</v>
-      </c>
-      <c r="F120" t="s">
-        <v>624</v>
+      <c r="E120">
+        <v>3.61</v>
+      </c>
+      <c r="F120">
+        <v>17328</v>
       </c>
       <c r="G120" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H120" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I120" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5697,20 +4638,20 @@
       <c r="D121">
         <v>4800</v>
       </c>
-      <c r="E121" t="s">
-        <v>450</v>
-      </c>
-      <c r="F121" t="s">
-        <v>624</v>
+      <c r="E121">
+        <v>3.61</v>
+      </c>
+      <c r="F121">
+        <v>17328</v>
       </c>
       <c r="G121" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H121" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I121" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5723,20 +4664,20 @@
       <c r="D122">
         <v>3600</v>
       </c>
-      <c r="E122" t="s">
-        <v>450</v>
-      </c>
-      <c r="F122" t="s">
-        <v>625</v>
+      <c r="E122">
+        <v>3.61</v>
+      </c>
+      <c r="F122">
+        <v>12996</v>
       </c>
       <c r="G122" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H122" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I122" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5749,20 +4690,20 @@
       <c r="D123">
         <v>4800</v>
       </c>
-      <c r="E123" t="s">
-        <v>451</v>
-      </c>
-      <c r="F123" t="s">
-        <v>626</v>
+      <c r="E123">
+        <v>4.63</v>
+      </c>
+      <c r="F123">
+        <v>22224</v>
       </c>
       <c r="G123" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H123" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I123" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5775,20 +4716,20 @@
       <c r="D124">
         <v>4800</v>
       </c>
-      <c r="E124" t="s">
-        <v>451</v>
-      </c>
-      <c r="F124" t="s">
-        <v>626</v>
+      <c r="E124">
+        <v>4.63</v>
+      </c>
+      <c r="F124">
+        <v>22224</v>
       </c>
       <c r="G124" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H124" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I124" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5801,20 +4742,20 @@
       <c r="D125">
         <v>3600</v>
       </c>
-      <c r="E125" t="s">
-        <v>451</v>
-      </c>
-      <c r="F125" t="s">
-        <v>627</v>
+      <c r="E125">
+        <v>4.63</v>
+      </c>
+      <c r="F125">
+        <v>16668</v>
       </c>
       <c r="G125" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H125" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I125" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5827,20 +4768,20 @@
       <c r="D126">
         <v>600</v>
       </c>
-      <c r="E126" t="s">
-        <v>452</v>
-      </c>
-      <c r="F126" t="s">
-        <v>628</v>
+      <c r="E126">
+        <v>6.52</v>
+      </c>
+      <c r="F126">
+        <v>3912</v>
       </c>
       <c r="G126" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H126" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I126" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5853,20 +4794,20 @@
       <c r="D127">
         <v>72</v>
       </c>
-      <c r="E127" t="s">
-        <v>453</v>
-      </c>
-      <c r="F127" t="s">
-        <v>629</v>
+      <c r="E127">
+        <v>26.79</v>
+      </c>
+      <c r="F127">
+        <v>1928.88</v>
       </c>
       <c r="G127" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H127" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I127" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5879,20 +4820,20 @@
       <c r="D128">
         <v>72</v>
       </c>
-      <c r="E128" t="s">
-        <v>454</v>
-      </c>
-      <c r="F128" t="s">
-        <v>630</v>
+      <c r="E128">
+        <v>33.72</v>
+      </c>
+      <c r="F128">
+        <v>2427.84</v>
       </c>
       <c r="G128" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H128" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I128" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5905,20 +4846,20 @@
       <c r="D129">
         <v>72</v>
       </c>
-      <c r="E129" t="s">
-        <v>455</v>
-      </c>
-      <c r="F129" t="s">
-        <v>631</v>
+      <c r="E129">
+        <v>41.83</v>
+      </c>
+      <c r="F129">
+        <v>3011.76</v>
       </c>
       <c r="G129" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H129" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I129" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5931,20 +4872,20 @@
       <c r="D130">
         <v>72</v>
       </c>
-      <c r="E130" t="s">
-        <v>456</v>
-      </c>
-      <c r="F130" t="s">
-        <v>632</v>
+      <c r="E130">
+        <v>57.72</v>
+      </c>
+      <c r="F130">
+        <v>4155.84</v>
       </c>
       <c r="G130" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H130" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I130" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5957,20 +4898,20 @@
       <c r="D131">
         <v>72</v>
       </c>
-      <c r="E131" t="s">
-        <v>457</v>
-      </c>
-      <c r="F131" t="s">
-        <v>633</v>
+      <c r="E131">
+        <v>61.49</v>
+      </c>
+      <c r="F131">
+        <v>4427.28</v>
       </c>
       <c r="G131" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H131" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I131" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5983,20 +4924,20 @@
       <c r="D132">
         <v>72</v>
       </c>
-      <c r="E132" t="s">
-        <v>458</v>
-      </c>
-      <c r="F132" t="s">
-        <v>634</v>
+      <c r="E132">
+        <v>63.44</v>
+      </c>
+      <c r="F132">
+        <v>4567.68</v>
       </c>
       <c r="G132" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H132" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I132" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6009,20 +4950,20 @@
       <c r="D133">
         <v>72</v>
       </c>
-      <c r="E133" t="s">
-        <v>459</v>
-      </c>
-      <c r="F133" t="s">
-        <v>635</v>
+      <c r="E133">
+        <v>10.02</v>
+      </c>
+      <c r="F133">
+        <v>721.4399999999999</v>
       </c>
       <c r="G133" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H133" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I133" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -6035,20 +4976,20 @@
       <c r="D134">
         <v>96</v>
       </c>
-      <c r="E134" t="s">
-        <v>460</v>
-      </c>
-      <c r="F134" t="s">
-        <v>636</v>
+      <c r="E134">
+        <v>14.6</v>
+      </c>
+      <c r="F134">
+        <v>1401.6</v>
       </c>
       <c r="G134" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H134" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I134" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -6061,20 +5002,20 @@
       <c r="D135">
         <v>96</v>
       </c>
-      <c r="E135" t="s">
-        <v>461</v>
-      </c>
-      <c r="F135" t="s">
-        <v>637</v>
+      <c r="E135">
+        <v>23.66</v>
+      </c>
+      <c r="F135">
+        <v>2271.36</v>
       </c>
       <c r="G135" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H135" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I135" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -6087,20 +5028,20 @@
       <c r="D136">
         <v>96</v>
       </c>
-      <c r="E136" t="s">
-        <v>462</v>
-      </c>
-      <c r="F136" t="s">
-        <v>638</v>
+      <c r="E136">
+        <v>26.6</v>
+      </c>
+      <c r="F136">
+        <v>2553.6</v>
       </c>
       <c r="G136" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H136" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I136" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -6113,20 +5054,20 @@
       <c r="D137">
         <v>72</v>
       </c>
-      <c r="E137" t="s">
-        <v>463</v>
-      </c>
-      <c r="F137" t="s">
-        <v>639</v>
+      <c r="E137">
+        <v>34.42</v>
+      </c>
+      <c r="F137">
+        <v>2478.24</v>
       </c>
       <c r="G137" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H137" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I137" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -6139,20 +5080,20 @@
       <c r="D138">
         <v>72</v>
       </c>
-      <c r="E138" t="s">
-        <v>464</v>
-      </c>
-      <c r="F138" t="s">
-        <v>640</v>
+      <c r="E138">
+        <v>12.61</v>
+      </c>
+      <c r="F138">
+        <v>907.92</v>
       </c>
       <c r="G138" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H138" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I138" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -6165,20 +5106,20 @@
       <c r="D139">
         <v>72</v>
       </c>
-      <c r="E139" t="s">
-        <v>465</v>
-      </c>
-      <c r="F139" t="s">
-        <v>641</v>
+      <c r="E139">
+        <v>35.24</v>
+      </c>
+      <c r="F139">
+        <v>2537.28</v>
       </c>
       <c r="G139" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H139" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I139" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -6191,20 +5132,20 @@
       <c r="D140">
         <v>72</v>
       </c>
-      <c r="E140" t="s">
-        <v>466</v>
-      </c>
-      <c r="F140" t="s">
-        <v>642</v>
+      <c r="E140">
+        <v>57.16</v>
+      </c>
+      <c r="F140">
+        <v>4115.52</v>
       </c>
       <c r="G140" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H140" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I140" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -6217,20 +5158,20 @@
       <c r="D141">
         <v>72</v>
       </c>
-      <c r="E141" t="s">
-        <v>467</v>
-      </c>
-      <c r="F141" t="s">
-        <v>643</v>
+      <c r="E141">
+        <v>63.76</v>
+      </c>
+      <c r="F141">
+        <v>4590.72</v>
       </c>
       <c r="G141" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H141" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I141" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6243,20 +5184,20 @@
       <c r="D142">
         <v>72</v>
       </c>
-      <c r="E142" t="s">
-        <v>468</v>
-      </c>
-      <c r="F142" t="s">
-        <v>644</v>
+      <c r="E142">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="F142">
+        <v>4908.960000000001</v>
       </c>
       <c r="G142" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H142" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I142" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -6269,20 +5210,20 @@
       <c r="D143">
         <v>72</v>
       </c>
-      <c r="E143" t="s">
-        <v>469</v>
-      </c>
-      <c r="F143" t="s">
-        <v>645</v>
+      <c r="E143">
+        <v>94.2</v>
+      </c>
+      <c r="F143">
+        <v>6782.400000000001</v>
       </c>
       <c r="G143" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H143" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I143" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6295,20 +5236,20 @@
       <c r="D144">
         <v>72</v>
       </c>
-      <c r="E144" t="s">
-        <v>470</v>
-      </c>
-      <c r="F144" t="s">
-        <v>646</v>
+      <c r="E144">
+        <v>961.3200000000001</v>
+      </c>
+      <c r="F144">
+        <v>69215.04000000001</v>
       </c>
       <c r="G144" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H144" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I144" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6321,20 +5262,20 @@
       <c r="D145">
         <v>36</v>
       </c>
-      <c r="E145" t="s">
-        <v>471</v>
-      </c>
-      <c r="F145" t="s">
-        <v>647</v>
+      <c r="E145">
+        <v>490.89</v>
+      </c>
+      <c r="F145">
+        <v>17672.04</v>
       </c>
       <c r="G145" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H145" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I145" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6347,20 +5288,20 @@
       <c r="D146">
         <v>72</v>
       </c>
-      <c r="E146" t="s">
-        <v>472</v>
-      </c>
-      <c r="F146" t="s">
-        <v>648</v>
+      <c r="E146">
+        <v>78.84</v>
+      </c>
+      <c r="F146">
+        <v>5676.48</v>
       </c>
       <c r="G146" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H146" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I146" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6373,20 +5314,20 @@
       <c r="D147">
         <v>240</v>
       </c>
-      <c r="E147" t="s">
-        <v>473</v>
-      </c>
-      <c r="F147" t="s">
-        <v>649</v>
+      <c r="E147">
+        <v>0.96</v>
+      </c>
+      <c r="F147">
+        <v>230.4</v>
       </c>
       <c r="G147" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H147" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I147" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6399,20 +5340,20 @@
       <c r="D148">
         <v>240</v>
       </c>
-      <c r="E148" t="s">
-        <v>474</v>
-      </c>
-      <c r="F148" t="s">
-        <v>650</v>
+      <c r="E148">
+        <v>1.07</v>
+      </c>
+      <c r="F148">
+        <v>256.8</v>
       </c>
       <c r="G148" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H148" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I148" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6425,20 +5366,20 @@
       <c r="D149">
         <v>240</v>
       </c>
-      <c r="E149" t="s">
-        <v>475</v>
-      </c>
-      <c r="F149" t="s">
-        <v>651</v>
+      <c r="E149">
+        <v>1.86</v>
+      </c>
+      <c r="F149">
+        <v>446.4</v>
       </c>
       <c r="G149" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H149" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I149" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6451,20 +5392,20 @@
       <c r="D150">
         <v>240</v>
       </c>
-      <c r="E150" t="s">
-        <v>476</v>
-      </c>
-      <c r="F150" t="s">
-        <v>652</v>
+      <c r="E150">
+        <v>2.55</v>
+      </c>
+      <c r="F150">
+        <v>612</v>
       </c>
       <c r="G150" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H150" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I150" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6477,20 +5418,20 @@
       <c r="D151">
         <v>240</v>
       </c>
-      <c r="E151" t="s">
-        <v>477</v>
-      </c>
-      <c r="F151" t="s">
-        <v>653</v>
+      <c r="E151">
+        <v>1.75</v>
+      </c>
+      <c r="F151">
+        <v>420</v>
       </c>
       <c r="G151" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H151" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I151" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6503,20 +5444,20 @@
       <c r="D152">
         <v>240</v>
       </c>
-      <c r="E152" t="s">
-        <v>478</v>
-      </c>
-      <c r="F152" t="s">
-        <v>654</v>
+      <c r="E152">
+        <v>1.48</v>
+      </c>
+      <c r="F152">
+        <v>355.2</v>
       </c>
       <c r="G152" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H152" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I152" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6529,20 +5470,20 @@
       <c r="D153">
         <v>240</v>
       </c>
-      <c r="E153" t="s">
-        <v>479</v>
-      </c>
-      <c r="F153" t="s">
-        <v>655</v>
+      <c r="E153">
+        <v>1.16</v>
+      </c>
+      <c r="F153">
+        <v>278.4</v>
       </c>
       <c r="G153" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H153" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I153" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6555,20 +5496,20 @@
       <c r="D154">
         <v>240</v>
       </c>
-      <c r="E154" t="s">
-        <v>480</v>
-      </c>
-      <c r="F154" t="s">
-        <v>656</v>
+      <c r="E154">
+        <v>1.1</v>
+      </c>
+      <c r="F154">
+        <v>264</v>
       </c>
       <c r="G154" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H154" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I154" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6581,20 +5522,20 @@
       <c r="D155">
         <v>240</v>
       </c>
-      <c r="E155" t="s">
-        <v>481</v>
-      </c>
-      <c r="F155" t="s">
-        <v>657</v>
+      <c r="E155">
+        <v>0.78</v>
+      </c>
+      <c r="F155">
+        <v>187.2</v>
       </c>
       <c r="G155" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H155" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I155" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6607,20 +5548,20 @@
       <c r="D156">
         <v>240</v>
       </c>
-      <c r="E156" t="s">
-        <v>482</v>
-      </c>
-      <c r="F156" t="s">
-        <v>658</v>
+      <c r="E156">
+        <v>2.26</v>
+      </c>
+      <c r="F156">
+        <v>542.4</v>
       </c>
       <c r="G156" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H156" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I156" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6633,20 +5574,20 @@
       <c r="D157">
         <v>240</v>
       </c>
-      <c r="E157" t="s">
-        <v>483</v>
-      </c>
-      <c r="F157" t="s">
-        <v>659</v>
+      <c r="E157">
+        <v>2.68</v>
+      </c>
+      <c r="F157">
+        <v>643.2</v>
       </c>
       <c r="G157" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H157" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I157" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6659,20 +5600,20 @@
       <c r="D158">
         <v>240</v>
       </c>
-      <c r="E158" t="s">
-        <v>484</v>
-      </c>
-      <c r="F158" t="s">
-        <v>660</v>
+      <c r="E158">
+        <v>3.32</v>
+      </c>
+      <c r="F158">
+        <v>796.8</v>
       </c>
       <c r="G158" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H158" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I158" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6685,20 +5626,20 @@
       <c r="D159">
         <v>72</v>
       </c>
-      <c r="E159" t="s">
-        <v>485</v>
-      </c>
-      <c r="F159" t="s">
-        <v>661</v>
+      <c r="E159">
+        <v>8.84</v>
+      </c>
+      <c r="F159">
+        <v>636.48</v>
       </c>
       <c r="G159" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H159" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I159" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6711,20 +5652,20 @@
       <c r="D160">
         <v>72</v>
       </c>
-      <c r="E160" t="s">
-        <v>486</v>
-      </c>
-      <c r="F160" t="s">
-        <v>662</v>
+      <c r="E160">
+        <v>16.27</v>
+      </c>
+      <c r="F160">
+        <v>1171.44</v>
       </c>
       <c r="G160" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H160" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I160" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6737,20 +5678,20 @@
       <c r="D161">
         <v>72</v>
       </c>
-      <c r="E161" t="s">
-        <v>487</v>
-      </c>
-      <c r="F161" t="s">
-        <v>663</v>
+      <c r="E161">
+        <v>21.98</v>
+      </c>
+      <c r="F161">
+        <v>1582.56</v>
       </c>
       <c r="G161" t="s">
-        <v>694</v>
+        <v>342</v>
       </c>
       <c r="H161" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I161" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6763,20 +5704,20 @@
       <c r="D162">
         <v>36</v>
       </c>
-      <c r="E162" t="s">
-        <v>450</v>
-      </c>
-      <c r="F162" t="s">
-        <v>664</v>
+      <c r="E162">
+        <v>3.61</v>
+      </c>
+      <c r="F162">
+        <v>129.96</v>
       </c>
       <c r="G162" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H162" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I162" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6789,20 +5730,20 @@
       <c r="D163">
         <v>36</v>
       </c>
-      <c r="E163" t="s">
-        <v>488</v>
-      </c>
-      <c r="F163" t="s">
-        <v>665</v>
+      <c r="E163">
+        <v>3.52</v>
+      </c>
+      <c r="F163">
+        <v>126.72</v>
       </c>
       <c r="G163" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H163" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I163" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6815,20 +5756,20 @@
       <c r="D164">
         <v>36</v>
       </c>
-      <c r="E164" t="s">
-        <v>489</v>
-      </c>
-      <c r="F164" t="s">
-        <v>666</v>
+      <c r="E164">
+        <v>3.29</v>
+      </c>
+      <c r="F164">
+        <v>118.44</v>
       </c>
       <c r="G164" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H164" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I164" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6841,20 +5782,20 @@
       <c r="D165">
         <v>36</v>
       </c>
-      <c r="E165" t="s">
-        <v>490</v>
-      </c>
-      <c r="F165" t="s">
-        <v>667</v>
+      <c r="E165">
+        <v>7.05</v>
+      </c>
+      <c r="F165">
+        <v>253.8</v>
       </c>
       <c r="G165" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H165" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I165" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6867,20 +5808,20 @@
       <c r="D166">
         <v>36</v>
       </c>
-      <c r="E166" t="s">
-        <v>491</v>
-      </c>
-      <c r="F166" t="s">
-        <v>668</v>
+      <c r="E166">
+        <v>7.45</v>
+      </c>
+      <c r="F166">
+        <v>268.2</v>
       </c>
       <c r="G166" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H166" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I166" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6893,20 +5834,20 @@
       <c r="D167">
         <v>36</v>
       </c>
-      <c r="E167" t="s">
-        <v>492</v>
-      </c>
-      <c r="F167" t="s">
-        <v>669</v>
+      <c r="E167">
+        <v>6.73</v>
+      </c>
+      <c r="F167">
+        <v>242.28</v>
       </c>
       <c r="G167" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H167" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I167" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6919,20 +5860,20 @@
       <c r="D168">
         <v>120</v>
       </c>
-      <c r="E168" t="s">
-        <v>493</v>
-      </c>
-      <c r="F168" t="s">
-        <v>670</v>
+      <c r="E168">
+        <v>22.7</v>
+      </c>
+      <c r="F168">
+        <v>2724</v>
       </c>
       <c r="G168" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H168" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I168" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6945,20 +5886,20 @@
       <c r="D169">
         <v>600</v>
       </c>
-      <c r="E169" t="s">
-        <v>494</v>
-      </c>
-      <c r="F169" t="s">
-        <v>671</v>
+      <c r="E169">
+        <v>15.79</v>
+      </c>
+      <c r="F169">
+        <v>9474</v>
       </c>
       <c r="G169" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H169" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I169" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6971,20 +5912,20 @@
       <c r="D170">
         <v>360</v>
       </c>
-      <c r="E170" t="s">
-        <v>495</v>
-      </c>
-      <c r="F170" t="s">
-        <v>672</v>
+      <c r="E170">
+        <v>14.32</v>
+      </c>
+      <c r="F170">
+        <v>5155.2</v>
       </c>
       <c r="G170" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H170" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I170" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6997,20 +5938,20 @@
       <c r="D171">
         <v>360</v>
       </c>
-      <c r="E171" t="s">
-        <v>496</v>
-      </c>
-      <c r="F171" t="s">
-        <v>673</v>
+      <c r="E171">
+        <v>15.09</v>
+      </c>
+      <c r="F171">
+        <v>5432.4</v>
       </c>
       <c r="G171" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H171" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I171" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -7023,20 +5964,20 @@
       <c r="D172">
         <v>360</v>
       </c>
-      <c r="E172" t="s">
-        <v>497</v>
-      </c>
-      <c r="F172" t="s">
-        <v>674</v>
+      <c r="E172">
+        <v>17.82</v>
+      </c>
+      <c r="F172">
+        <v>6415.2</v>
       </c>
       <c r="G172" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H172" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I172" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -7049,20 +5990,20 @@
       <c r="D173">
         <v>240</v>
       </c>
-      <c r="E173" t="s">
-        <v>498</v>
-      </c>
-      <c r="F173" t="s">
-        <v>675</v>
+      <c r="E173">
+        <v>7.67</v>
+      </c>
+      <c r="F173">
+        <v>1840.8</v>
       </c>
       <c r="G173" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H173" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I173" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -7075,20 +6016,20 @@
       <c r="D174">
         <v>240</v>
       </c>
-      <c r="E174" t="s">
-        <v>499</v>
-      </c>
-      <c r="F174" t="s">
-        <v>676</v>
+      <c r="E174">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F174">
+        <v>2013.6</v>
       </c>
       <c r="G174" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H174" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I174" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -7101,20 +6042,20 @@
       <c r="D175">
         <v>240</v>
       </c>
-      <c r="E175" t="s">
-        <v>500</v>
-      </c>
-      <c r="F175" t="s">
-        <v>677</v>
+      <c r="E175">
+        <v>13.63</v>
+      </c>
+      <c r="F175">
+        <v>3271.2</v>
       </c>
       <c r="G175" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H175" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I175" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -7127,20 +6068,20 @@
       <c r="D176">
         <v>24</v>
       </c>
-      <c r="E176" t="s">
-        <v>501</v>
-      </c>
-      <c r="F176" t="s">
-        <v>678</v>
+      <c r="E176">
+        <v>341.58</v>
+      </c>
+      <c r="F176">
+        <v>8197.92</v>
       </c>
       <c r="G176" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H176" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I176" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -7153,20 +6094,20 @@
       <c r="D177">
         <v>18</v>
       </c>
-      <c r="E177" t="s">
-        <v>502</v>
-      </c>
-      <c r="F177" t="s">
-        <v>679</v>
+      <c r="E177">
+        <v>447.26</v>
+      </c>
+      <c r="F177">
+        <v>8050.68</v>
       </c>
       <c r="G177" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H177" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I177" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -7179,20 +6120,20 @@
       <c r="D178">
         <v>12</v>
       </c>
-      <c r="E178" t="s">
-        <v>503</v>
-      </c>
-      <c r="F178" t="s">
-        <v>680</v>
+      <c r="E178">
+        <v>519.78</v>
+      </c>
+      <c r="F178">
+        <v>6237.36</v>
       </c>
       <c r="G178" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H178" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I178" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -7205,20 +6146,20 @@
       <c r="D179">
         <v>120</v>
       </c>
-      <c r="E179" t="s">
-        <v>504</v>
-      </c>
-      <c r="F179" t="s">
-        <v>681</v>
+      <c r="E179">
+        <v>81.62</v>
+      </c>
+      <c r="F179">
+        <v>9794.400000000001</v>
       </c>
       <c r="G179" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H179" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I179" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -7231,20 +6172,20 @@
       <c r="D180">
         <v>60</v>
       </c>
-      <c r="E180" t="s">
-        <v>505</v>
-      </c>
-      <c r="F180" t="s">
-        <v>682</v>
+      <c r="E180">
+        <v>14.87</v>
+      </c>
+      <c r="F180">
+        <v>892.1999999999999</v>
       </c>
       <c r="G180" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H180" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I180" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -7257,20 +6198,20 @@
       <c r="D181">
         <v>60</v>
       </c>
-      <c r="E181" t="s">
-        <v>506</v>
-      </c>
-      <c r="F181" t="s">
-        <v>683</v>
+      <c r="E181">
+        <v>12.65</v>
+      </c>
+      <c r="F181">
+        <v>759</v>
       </c>
       <c r="G181" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H181" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I181" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -7283,20 +6224,20 @@
       <c r="D182">
         <v>36</v>
       </c>
-      <c r="E182" t="s">
-        <v>507</v>
-      </c>
-      <c r="F182" t="s">
-        <v>684</v>
+      <c r="E182">
+        <v>25.32</v>
+      </c>
+      <c r="F182">
+        <v>911.52</v>
       </c>
       <c r="G182" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H182" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I182" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -7309,20 +6250,20 @@
       <c r="D183">
         <v>60</v>
       </c>
-      <c r="E183" t="s">
-        <v>508</v>
-      </c>
-      <c r="F183" t="s">
-        <v>685</v>
+      <c r="E183">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="F183">
+        <v>533.4000000000001</v>
       </c>
       <c r="G183" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H183" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I183" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -7335,20 +6276,20 @@
       <c r="D184">
         <v>60</v>
       </c>
-      <c r="E184" t="s">
-        <v>509</v>
-      </c>
-      <c r="F184" t="s">
-        <v>686</v>
+      <c r="E184">
+        <v>13.58</v>
+      </c>
+      <c r="F184">
+        <v>814.8</v>
       </c>
       <c r="G184" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H184" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I184" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -7361,20 +6302,20 @@
       <c r="D185">
         <v>600</v>
       </c>
-      <c r="E185" t="s">
-        <v>390</v>
-      </c>
-      <c r="F185" t="s">
-        <v>687</v>
+      <c r="E185">
+        <v>34.9</v>
+      </c>
+      <c r="F185">
+        <v>20940</v>
       </c>
       <c r="G185" t="s">
-        <v>688</v>
+        <v>336</v>
       </c>
       <c r="H185" t="s">
-        <v>695</v>
+        <v>343</v>
       </c>
       <c r="I185" t="s">
-        <v>696</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
